--- a/data/Map118.xlsx
+++ b/data/Map118.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>自動実行</t>
   </si>
@@ -23,7 +23,13 @@
     <t>リリー</t>
   </si>
   <si>
+    <t>Rewrite     -   Lily</t>
+  </si>
+  <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>アーコイベ用</t>
@@ -852,11 +858,20 @@
 そんな小さなナイフなんて置いて♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Hey, it feels good, right?
+You've got such a little knife♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ナイフなんかよりその股間についてる武器を握らないと♥
 サキュバスは倒せないわよ？
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;The only weapon you can hold is the one attached to your crotch♥
+There's no way to defeat a succubus, right?
+Heehee♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;いいのよ？
 サキュバスに搾られるのが怖いなら、自分で扱けば？
 ほら♥それなら大丈夫でしょ？くす♥</t>
@@ -871,14 +886,29 @@
 あんたそれでもハンターなの？</t>
   </si>
   <si>
+    <t>\ n&lt;\n[3]&gt; Heehee ♥ 
+Just a little teasing made you react like that?
+Can you even call yourself a hunter anymore?</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ひとつ言っておくけど、
 『そんなもの』じゃ私たち淫魔は倒せないからね？
 武器は効かないの。もちろん知ってるわよね。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Let me tell you something. 
+You can't defeat a succubus with something like that, right? 
+Weapons don't work. But you know that already.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ま、好きにしなさい。
 もっと抗ってみせてね♥
 雑魚ハンターさん♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I hope you like it. 
+Show me more♥
+ Little succubus hunter♥</t>
   </si>
   <si>
     <t>果物ナイフが置いてある・・・
@@ -1516,7 +1546,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A299"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1524,1499 +1554,1520 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>212</v>
+      </c>
+      <c r="C211" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="C212" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>218</v>
+      </c>
+      <c r="C215" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>220</v>
+      </c>
+      <c r="C216" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="C217" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map118.xlsx
+++ b/data/Map118.xlsx
@@ -23,13 +23,13 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>アーコイベ用</t>

--- a/data/Map118.xlsx
+++ b/data/Map118.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t>自動実行</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>自動実行カギ</t>
@@ -45,7 +48,16 @@
 ちゃんと鍵掛けた？</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;Lily&gt;Oh Shina, you're back.
+Did you lock them up?
+</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;は？知らんし。</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Huh, me?
+Beats me.</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ちょっと！
@@ -53,8 +65,17 @@
 逃げられたらどうすんのよ！</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Whoa whoa whoa!
+You need to take this seriously!
+What if they got out!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;はぁ～～～・・・
 ほんとあんたっていっつも・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Sigh....
+Why are you always so... so...</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;はぁ？
@@ -62,13 +83,27 @@
 鍵持ってないし。アタシじゃねー！</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Whaa?
+I dunno-nya.
+I don't have the key. It's not my fault!</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;私も持ってないよ。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;I don't have a key either.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ん？</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Hm?</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;・・・！！</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...!!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;私が持ってた。
@@ -76,20 +111,39 @@
 鍵、閉めたっけ？</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;I have the key.
+...
+Did you at least shut the door?</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;知らんし。
 アホにゃ。</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;I dunno.
+Why don't you do it yourself-nya.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;とりあえず、確認しに戻ろっか。
 リリー。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Well for now, let's go back and check,
+Lily?</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;ごめんなさいは～？</t>
   </si>
   <si>
+    <t>\n&lt;Shina&gt;Now who should be the one apologizing?~</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;えへっ♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;Eei♥</t>
+  </si>
+  <si>
     <t>引っかけ場所</t>
   </si>
   <si>
@@ -100,6 +154,9 @@
   </si>
   <si>
     <t>\n&lt;ライム&gt;やっぱりね！</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;やっぱりね！</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;逃げる時間そんなにないよなー、って思ってたの。
@@ -107,7 +164,16 @@
 待ってたら来ると思ったよー！</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;逃げる時間そんなにないよなー、って思ってたの。
+どこかに隠れてたのかな？
+待ってたら来ると思ったよー！</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;にへへへへー♥
+つーかまーえた♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;にへへへへー♥
 つーかまーえた♥</t>
   </si>
   <si>
@@ -138,11 +204,19 @@
     <t>\C[1]SAN値が1下がった・・・（現在SAN値\v[270]）</t>
   </si>
   <si>
+    <t>\C[1]Sanity decreased by 1... (Current Sanity: \v[270]）</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;もうー。ひょっとして全然抵抗する気ないのー？
 ゲームはまだ始まったばかりなのに。
 次は本気で搾っちゃうからねー？</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;もうー。ひょっとして全然抵抗する気ないのー？
+ゲームはまだ始まったばかりなのに。
+次は本気で搾っちゃうからねー？</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;あっ！逃げられちゃった・・・
 まぁいいっかー。</t>
   </si>
@@ -407,6 +481,9 @@
   </si>
   <si>
     <t>・・・</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;何を買ってくれるのかな？</t>
@@ -1546,7 +1623,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,1520 +1631,1613 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C211" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C212" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C215" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C216" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C217" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map118.xlsx
+++ b/data/Map118.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
   <si>
     <t>自動実行</t>
   </si>
@@ -156,7 +156,7 @@
     <t>\n&lt;ライム&gt;やっぱりね！</t>
   </si>
   <si>
-    <t>\n&lt;Lime&gt;やっぱりね！</t>
+    <t>\n&lt;Lime&gt;I knew it!</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;逃げる時間そんなにないよなー、って思ってたの。
@@ -164,21 +164,25 @@
 待ってたら来ると思ったよー！</t>
   </si>
   <si>
-    <t>\n&lt;Lime&gt;逃げる時間そんなにないよなー、って思ってたの。
-どこかに隠れてたのかな？
-待ってたら来ると思ったよー！</t>
+    <t>\n&lt;Lime&gt;I was just thinking, "there's was no time to escape at all-".
+You hid somewhere, right? So I thought to wait here, just in case!</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;にへへへへー♥
 つーかまーえた♥</t>
   </si>
   <si>
-    <t>\n&lt;Lime&gt;にへへへへー♥
-つーかまーえた♥</t>
+    <t>\n&lt;Lime&gt;Ehehehehe-♥
+Caught you-♥</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ぬるぬるして動きにくいでしょー。
 早く逃げないと白いの出させちゃうぞー？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;It's hard to move when everything is so slippery right?
+If you don't escape soon you'll let out your white
+stuff you know?</t>
   </si>
   <si>
     <t>\C[3]※捕まるとタイミングバーが表示されます。
@@ -186,21 +190,40 @@
 赤で止めると被ダメージが半減します。</t>
   </si>
   <si>
+    <t>\C[3]※A timing bar will display if you're caught.
+\C[0]Go ahead and stop in the red or yellow areas.
+Red areas will reduce damage taken by half.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;むにゅー・・・♥
 柔らかくて溶けちゃいそうでしょー♥
 気持ちいい気持ちいいー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Squish-...♥
+They're so soft you're about to melt aren't you?♥
+Feels so good- Feels so good-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あれー？もう出ちゃうのー？
 おっぱい我慢できなかったー？あはは♥
 じゃあ一回だけ、出しちゃおっかー♪</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;What's this? You're about to cum already-?
+So you couldn't resist my boobs after all? Ahaha♥
+Well then, I'll give you one more pump, let it all out♪</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっあっ♥おっぱいの間でぴくぴくしてるー♥
 おちんちん喜んでくれたみたい♥
 うれしー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahh ahh♥ It's shooting between my boobies-♥
+Your penis seems delighted too♥ I'm so happy-♥</t>
+  </si>
+  <si>
     <t>\C[1]SAN値が1下がった・・・（現在SAN値\v[270]）</t>
   </si>
   <si>
@@ -212,13 +235,17 @@
 次は本気で搾っちゃうからねー？</t>
   </si>
   <si>
-    <t>\n&lt;Lime&gt;もうー。ひょっとして全然抵抗する気ないのー？
-ゲームはまだ始まったばかりなのに。
-次は本気で搾っちゃうからねー？</t>
+    <t>\n&lt;Lime&gt;Whoa- Were you seriously not trying to resist at all-?
+And the game has only just started too,
+next time I'll milk you for real okay?</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;あっ！逃げられちゃった・・・
 まぁいいっかー。</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ah! You escaped...
+Oh well-.</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;えーっと、リリーの言ってたこと、
@@ -226,13 +253,27 @@
 脱出ゲームがどーのこーの・・・</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;That is...you heard what Lily said right?
+About this escape game thingy...</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;この館は広いからねー。
 なかなか出られないと思うけど・・・
 頑張って色んなところ、探してみてね。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;This mansion is very, very big-.
+I don't think you'll get out...but feel free to try your hardest,
+and search everywhere you can okay?</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;あ！あとねー。
 魔物さんたちにも捕まえるの手伝って貰ってるの。</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ah! By the way-.
+We've received the help of some lower class monsters to help
+capture you.</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;私たちに捕まると\C[1]『精力にダメージ』\C[0]
@@ -240,31 +281,59 @@
 どっちが0になってもゲームオーバーだよー。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;If we capture you, \C[1]your energy will be drained.\C[0]
+If our monsters capture you, \C[14]you'll take physical damage.\C[0]
+If any of these values reach 0, it'll be game over-!</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;リリーもシィナも楽しそうだから。
 簡単に諦めたりしちゃダメだよー？
 いっぱい遊ばれてね。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Lily and Shina seem to be happy after all.
+So you shouldn't give up so easily OK? Enjoy yourself
+as much as possible now-.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;次は一回射精したぐらいじゃ
 許してあげないからねー？くすくす♥
 ばいばーい♥</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Next time you cum, I won't go easy on you now alright?
+Teehee♥ Bye bye♥</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;じゃー頑張ってねー。
 次は私も本気でぴゅっぴゅさせにいっちゃうからねー。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Now then, do your best okay?
+Next time I'll make you go pew pew for realsies-</t>
+  </si>
+  <si>
     <t>ドア</t>
   </si>
   <si>
     <t>玄関扉は固く閉ざされている・・・</t>
   </si>
   <si>
+    <t>The entrance door has been shut tight...</t>
+  </si>
+  <si>
     <t>\n&lt;？？？&gt;開かないよ。</t>
+  </si>
+  <si>
+    <t>\n&lt;???&gt;It won't open.</t>
   </si>
   <si>
     <t>\n&lt;？？？&gt;あたしも閉じ込められて困ってんの。
 あんた誰？</t>
+  </si>
+  <si>
+    <t>\n&lt;???&gt;I'm afraid it means I can't get out either.
+Who are you?</t>
   </si>
   <si>
     <t>MP_SET_MOVIE e8_Ta</t>
@@ -278,8 +347,17 @@
 知ってる？ちゅーりつって言葉。チューリップじゃないよ。</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;???&gt;Ah, there's no need to look so cautious.
+I'm a neutral party. Neutral party. Not the natural party.
+Do you understand? I'm not related to anyone here. </t>
+  </si>
+  <si>
     <t>\n&lt;？？？&gt;こんなところに人間が居るなんて珍しーね。
 リリーたちに捕まったのかな？</t>
+  </si>
+  <si>
+    <t>\n&lt;???&gt;It's rare to see humans in places like these you know.
+Did Lily and her gang capture you?</t>
   </si>
   <si>
     <t>\n&lt;？？？&gt;あたしアーコ。
@@ -287,14 +365,28 @@
 あんたは？</t>
   </si>
   <si>
+    <t>\n&lt;???&gt;The name's Ako, Ako the black cat.
+Nice to meet you. What's your name?</t>
+  </si>
+  <si>
     <t>\n[1]・・・</t>
   </si>
   <si>
+    <t>\n[1]...</t>
+  </si>
+  <si>
     <t>擬態型かァ～？</t>
+  </si>
+  <si>
+    <t>Friend or foe...?</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;友好型だよ。アーコだよ。
 名前。教えてよ。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Friend! And it's Ako!
+What's yours?</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;\n[1]。
@@ -302,14 +394,29 @@
 フツーにいい名前。フツー。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;\n[1].
+I see. I'll remember that. What an ordinary name.
+Ordinary ordinary.</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;アーコ来てんのかー！？</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;So did you bring them or not Ako-!?</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;隠れて！</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Hide!</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;タバコにゃ。
 持ってきたにゃ？</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;My cigarettes-nya.
+You brought them right-nya?</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;ほいほい。
@@ -317,19 +424,40 @@
 何個欲しいの？しぃにゃん。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Right here.
+Due to increases in tax one box is 540G.
+How many do you want? Shin-nya?</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;淫魔が税金納めてんじゃねー！
 カートンにゃ！
 あと次しぃにゃんって呼んだら殺す！</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;Succubus don't pay taxes!!
+A whole carton! A-And call me Shi-nya again and
+you'll really be in for it!</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;5400G！まいどー♪
 あたし、しぃにゃんの怒った顔好き。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;And that comes to 5400G!
+Pleasure doing business with you♪
+I'll never get sick of seeing Shi-nyans flustered face.</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;アーココロス！</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;I'll, I'll kill you!</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;（可愛い・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;(She's so cute...)</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;あーお前と話してるとほんと調子狂うにゃ。
@@ -337,33 +465,68 @@
 じゃーなバーカ。</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;S-Speaking with you really makes me mad-nya.
+Now go home. See ya later, idiot.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;帰りたくても帰れないよ。
 玄関開かないもん。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;I can't go back even if I want to.
+The door won't open.</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;あ。そうにゃ。
 今人間と脱出ゲームやってるから全部閉め切ってるにゃん。</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;Ah. That's right-nya.
+Because of an escape game we're playing with a human right
+now, it's completely shut-nya.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;脱出ゲーム？</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;An escape game?</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;人間がここから脱出するのが先か
 アタシらにチンポ犯されまくって干物になるのが先かの・・・</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;A game of what will come first...
+The human escaping, or getting their dick totally
+milked until they become our semen slave...</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;まさにセイシをかけたゲームにゃ！</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;A game of life and death-nya!</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;そう・・・
 （また妙なことやってる・・・）</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;I see...
+(So they're doing weird stuff again...)</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;邪魔すんなよ。</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;You'd better not get in our way.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;えっ？ちょっと待って。
 それってあたしも出られないってコト？</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Eh? Wait just a moment.
+Are you saying that I can't get out either now?</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;お前のことは知らんし。
@@ -371,8 +534,17 @@
 カートンありがとにゃー。</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;I don't know about you.
+Trace the grooves of the floor or something.
+Thanks for the cigars-nya.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;なるほどねー。
 事情は分かったよ。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I see-
+I think I understand your circumstances.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;どうやら\n[1]が出口を見つけるか干物になるまで
@@ -380,11 +552,22 @@
 うーん。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;It seems that until \n[1] gets milked or
+finds a way out, I'm stuck here. Haah...</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;今ここで干物にしちゃうか・\.・\.・\.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Maybe I could milk you a little now.\..\..\.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;冗談だよ。
 うける。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Just joking!
+Gotcha.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;ところであたしは淫魔だけどお店をやってるんだよ。
@@ -392,20 +575,37 @@
 精力剤とか必要でしょ？売ってあげるよ！</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;By the way, I may be a succubus, but I also 
+run a shop. It's called the Black Cat! You need medicine?
+I sell it all!</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;お金無いの？
 じゃあ、もしこの館でお金になりそうなものあったら
 あたしに持ってきて。買い取ってあげる。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;You don't have any money?
+Well, if you find anything in this house that you think
+is worth something, bring it to me. I'll buy it.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あたしここに居るから。
 何かあったら話しかけてね。
 じゃ。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;I'll be waiting right here.
+Come chat if you need something alright? Till then!</t>
+  </si>
+  <si>
     <t>シィナイベ用</t>
   </si>
   <si>
     <t>アーコ</t>
+  </si>
+  <si>
+    <t>Ako</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;やぁやぁ。アーコだよ。
@@ -413,8 +613,16 @@
 見てく？</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Hello hello! Ako here!
+Is there something you want? Why not take a look?</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;武器になりそうなものとか見つけた？
 まずはそういうの探すといいかもね。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Did you find anything that you could use as a weapon?
+That's the first thing you should search for I bet.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;何食べたらそんなにおっぱい大きくなるの？
@@ -422,38 +630,76 @@
 錯覚？</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;What do you eat to make your boobs so big?
+Is it the horizontal stripes that make them look bigger?
+Is it some kind of illusion?</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;囚人服に合ってるよ。
 まさに囚人って感じ。
 褒めてないよ。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;That prison outfit suits you.
+I mean, you are a prisoner I guess.
+Don't take it as a compliment.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あたしは淫魔だし、気持ちが分かるから
 どっちの味方もしないよ。
 でも仲良くしたいって思ってる。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;I'm a succubus, and I know how you feel.
+I won't pick sides. But I hope we can be friends.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;シィナは猫の時からの友達だよ。
 リリーに淫魔にされたんだってさ。
 あたしは違うやつに淫魔にされたけど。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Shina has been my friend since we were just cats!
+Lily turned her into a succubus, and now she's like that.
+A different person turned me into a succubus though.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あたしも淫魔だから精液が一番美味しいと思うけど
 カリカリもかつおぶしも同じくらい美味しいと思う。
 一番がいっぱいあるといいね。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;I'm a succubus as well so of course semen is the most delicious
+thing in the world... But I love crisps and katsuobushi as well.
+I can never get enough of them~</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;ここは元々大金持ちが住んでたんだって。
 メイドも使用人もいっぱい居たってさ。
 なんでこんな森の中に？って感じ。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;A very rich person used to live here...
+And lots of maids and servants too. It makes me think-
+What was it doing out in the forest?</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;みんなお金に興味ないから
 あたしがこの館から色々持って行っても何とも思わないんだよ。
 だから、ここで仕入れて町で売ったりする。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Because no one has any interest in gold here,
+they don't care if I take stuff from the mansion.
+So, I just take it to town and sell it.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;その見返りにタバコとか持ってきてあげるの。
 まぁ、それもお金取るけどね。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I'll give you cigars and stuff for something good.
+...Well, for the right price that is.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;淫魔の巣に閉じ込められるのは
@@ -461,12 +707,25 @@
 少しでもえっちな気分になるとすぐ硬くなっちゃう。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;It must be so difficult being a human 
+locked up in the succubus hideout.
+Even being just a bit aroused will make you hard.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;行き詰ったらとりあえず攻撃してみたらいいよ。
 壊せるものとかあるかもしれないし。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;If things look hopeless, just keep attacking.
+You might just make a break through.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;お兄ちゃんも下に居るの？
 面白そうだから後で行ってみよー。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Your big brother is down there too right?
+How interesting, I'll be sure to give him a visit later-.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;妹も捕まってるの？
@@ -474,12 +733,22 @@
 仲良くなれるかな？</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;So your sister has been captured as well?
+I'll go and visit her later-.I wonder if we would get along well?</t>
+  </si>
+  <si>
     <t>買い物</t>
   </si>
   <si>
+    <t>Buy something</t>
+  </si>
+  <si>
     <t>用事はない</t>
   </si>
   <si>
+    <t>I don't need anything right now</t>
+  </si>
+  <si>
     <t>・・・</t>
   </si>
   <si>
@@ -487,20 +756,37 @@
   </si>
   <si>
     <t>\n&lt;アーコ&gt;何を買ってくれるのかな？</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;What would you like to buy?</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;ははーん。さては冷やかしだな？
 ふーん！</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Haah. Did you just come to window shop or something?
+Hmmph!</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;まいどあり～！</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Thank you for your purchase-!</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;ふーん。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Hmm.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;戦うの・・・？
 そっか・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Fighting...?
+I see...</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;（どっちが勝ってもやだなぁ・・・
@@ -508,28 +794,53 @@
 でも・・・しょうがないのかなぁ・・・）</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;（どっちが勝ってもやだなぁ・・・
+・・・でも・・・しょうがないのかなぁ・・・）</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あたしは中立。
 だからお金くれる方の味方。というかお金の味方。
 うん。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;あたしは中立。
+だからお金くれる方の味方。というかお金の味方。うん。</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;分かった。売ってあげる。
 戦うための装備。
 ・・・</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;分かった。売ってあげる。
+戦うための装備。・・・</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;本当に戦うの・・・？
 リリーは強いよ。
 \n[1]が負けて食べられちゃうのあたし、やだな。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;本当に戦うの・・・？
+リリーは強いよ。\n[1]が負けて食べられちゃうのあたし、やだな。</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;何が欲しいのかな？</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;何が欲しいのかな？</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;もう帰ろーよー。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;もう帰ろーよー。</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;そっか。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;そっか。</t>
   </si>
   <si>
     <t>食糧庫ドア</t>
@@ -548,6 +859,9 @@
     <t xml:space="preserve"> &lt;enemy:145&gt;</t>
   </si>
   <si>
+    <t>&lt;enemy:145&gt;</t>
+  </si>
+  <si>
     <t>瓦礫を壊せば通れそうだ・・・</t>
   </si>
   <si>
@@ -584,6 +898,9 @@
     <t xml:space="preserve"> &lt;enemy:151&gt;</t>
   </si>
   <si>
+    <t>&lt;enemy:151&gt;</t>
+  </si>
+  <si>
     <t>鍵穴が見当たらないが
 建付けが悪くて開きそうにない・・・</t>
   </si>
@@ -592,6 +909,9 @@
   </si>
   <si>
     <t xml:space="preserve"> &lt;enemy:99&gt;</t>
+  </si>
+  <si>
+    <t>&lt;enemy:99&gt;</t>
   </si>
   <si>
     <t>リリー召喚魔法陣</t>
@@ -602,46 +922,82 @@
 私の部屋があるもの。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ちょっと待ちなさい。
+2階はダメよ。私の部屋があるもの。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;そうねぇ。
 どうしても通りたいって言うなら・・・
 ちょっとしたゲームをしましょ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;そうねぇ。
+どうしても通りたいって言うなら・・・ちょっとしたゲームをしましょ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あんたが後ろから私を突いて、射精を我慢するの♥
 ゆっくり奥まで入れて抜くだけ♥
 そうね、3回でいいわ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あんたが後ろから私を突いて、射精を我慢するの♥
+ゆっくり奥まで入れて抜くだけ♥そうね、3回でいいわ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;3回入れて射精しなかったらあんたの勝ち。
 我慢できずにイっちゃったらあんたの負け。
 どう？これぐらいなら余裕でしょ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;3回入れて射精しなかったらあんたの勝ち。
+我慢できずにイっちゃったらあんたの負け。どう？これぐらいなら余裕でしょ？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;たったの3回、おちんちんをオマンコに入れるだけよ。
 私からは手を出さない。
 超簡単なゲーム♥大サービスよ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;たったの3回、おちんちんをオマンコに入れるだけよ。
+私からは手を出さない。超簡単なゲーム♥大サービスよ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほらおいで♥
 大丈夫。たったの3回よ♥
 まさか、怖気づいちゃった訳じゃないわよねぇ？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ほらおいで♥
+大丈夫。たったの3回よ♥まさか、怖気づいちゃった訳じゃないわよねぇ？くすくす♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あはっ♥どうしたの驚いた顔しちゃって♥
 そんなに気持ちよかった？
 ほら、あと2回♥がんばれ♥がんばれ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あはっ♥どうしたの驚いた顔しちゃって♥
+そんなに気持ちよかった？ほら、あと2回♥がんばれ♥がんばれ♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;息が荒いわよ？必死に耐えてるの？
 イキそうならやめてもいいのよ♥
 それとも、私に中出しする？くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;息が荒いわよ？必死に耐えてるの？
+イキそうならやめてもいいのよ♥それとも、私に中出しする？くすくす♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あははは！その必死な顔♥超ウケる♥
 でもまぁ、あんたの勝ちよ♥
 ぷ・・・くくく♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あははは！その必死な顔♥超ウケる♥
+でもまぁ、あんたの勝ちよ♥ぷ・・・くくく♥</t>
+  </si>
+  <si>
     <t>挿入</t>
   </si>
   <si>
@@ -653,11 +1009,19 @@
 お尻に熱いのがかかってるわ♥くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あはっ。
+抜いたのに限界が来ちゃってたみたい♥お尻に熱いのがかかってるわ♥くすくす♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;やめるの？
 イキそうになっちゃった？
 じゃあゲームはここまでね。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;やめるの？
+イキそうになっちゃった？じゃあゲームはここまでね。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;あぁ！！ダメ！！
 あぁぁぁぁぁぁぁ！！！</t>
   </si>
@@ -671,11 +1035,19 @@
 私が何もしないのはゲームの時だけよ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ん？なーに？
+ゲームは終わりって言ったじゃない。私が何もしないのはゲームの時だけよ？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あはっ♥お尻にもたれかかって。
 くすくす♥
 そんなに気持ちよかったの？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あはっ♥お尻にもたれかかって。
+くすくす♥そんなに気持ちよかったの？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;じゃ、通っていいわよ。
 約束だものね。</t>
   </si>
@@ -685,11 +1057,19 @@
 ま、精々楽しませてね♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;たったの3回入れただけでイキそうになってるあんたが
+この先無事に脱出できるとは思えないけど♥ま、精々楽しませてね♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;雑魚♥
 3回すら我慢できないの？くすくす♥
 じゃ、また挑戦したくなったら来なさい。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;雑魚♥
+3回すら我慢できないの？くすくす♥じゃ、また挑戦したくなったら来なさい。</t>
+  </si>
+  <si>
     <t>ツタが入口を塞いでいる・・・
 武器があればなんとか出来るかもしれない。</t>
   </si>
@@ -715,11 +1095,19 @@
 でも、本当にいいにゃん？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;悪あがき頑張ってるのにゃぁ？
+くすくす♥でも、本当にいいにゃん？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ここから出たらアタシらとえっちなこと出来んにゃ？
 一生後悔するにゃぁ。
 ほらこっち見ろにゃん。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ここから出たらアタシらとえっちなこと出来んにゃ？
+一生後悔するにゃぁ。ほらこっち見ろにゃん。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;しーこ♥しーこにゃ♥
 これ見てるとムズムズしてくるにゃぁ？</t>
   </si>
@@ -729,41 +1117,73 @@
 いっぱい泣かせてやるにゃ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;こっちに来たらアタシがこの手とベロで
+チンコいじめまくっていっぱい泣かせてやるにゃ♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;しーこ♥しーこ♥
 れーろ♥れーろ♥にゃはっ♥
 見てるだけでチンコダメージ受けてるし♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;しーこ♥しーこ♥
+れーろ♥れーろ♥にゃはっ♥見てるだけでチンコダメージ受けてるし♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほーら♥我慢できるにゃぁ？
 これ見て頭バカにするにゃん♥
 れろれろー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ほーら♥我慢できるにゃぁ？
+これ見て頭バカにするにゃん♥れろれろー♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;たったこれだけで我慢汁垂れ流しになってるし。
 そんなよわよわチンコどうせ無理にゃ。
 今喰ってやるにゃ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;たったこれだけで我慢汁垂れ流しになってるし。
+そんなよわよわチンコどうせ無理にゃ。今喰ってやるにゃ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もう逃げる気無くなったし。
 よーわ。
 じゃあまず自分で扱いて見せろにゃ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;もう逃げる気無くなったし。
+よーわ。じゃあまず自分で扱いて見せろにゃ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;くんくん・・・
 にゃぁ・・・♥
 我慢させればさせるほどいい匂いになるにゃぁ。</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;くんくん・・・
+にゃぁ・・・♥我慢させればさせるほどいい匂いになるにゃぁ。</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もう少し泳がしてやるし。
 アタシ以外で射精したら殺すにゃ。
 ちゃんと我慢するにゃぁ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;もう少し泳がしてやるし。
+アタシ以外で射精したら殺すにゃ。ちゃんと我慢するにゃぁ？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;アタシのこと思い出して
 自分でしこったりすんなよー？
 にゃはははは♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;アタシのこと思い出して
+自分でしこったりすんなよー？にゃはははは♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;逃げるために悪あがきしてるのにゃぁ？
 本当にー？</t>
   </si>
@@ -773,6 +1193,10 @@
 ほらこっち見るにゃん♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ここから出たらアタシらとえっちなこと出来んにゃ？
+それでいいのにゃぁ？ほらこっち見るにゃん♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;しーこ♥しーこ♥
 れーろ♥れーろ♥
 にゃはっ♥見てるだけでチンコダメージ受けてるし♥</t>
@@ -783,16 +1207,28 @@
 諦めてぴゅっぴゅしろばーか♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;たったこれだけで我慢汁垂れ流しになってるにゃん。
+そんなよわよわチンコどうせ無理にゃ。諦めてぴゅっぴゅしろばーか♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もう逃げる気無くなったし。
 よーわ。
 じゃあまず自分で扱いて見せるにゃん♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;もう逃げる気無くなったし。
+よーわ。じゃあまず自分で扱いて見せるにゃん♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;もう少し泳がしてやるし。
 アタシ以外でぴゅーぴゅーしたら殺すにゃ。
 ちゃんと我慢するにゃぁ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;もう少し泳がしてやるし。
+アタシ以外でぴゅーぴゅーしたら殺すにゃ。ちゃんと我慢するにゃぁ？</t>
+  </si>
+  <si>
     <t>お金</t>
   </si>
   <si>
@@ -815,11 +1251,19 @@
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;ちゅー♥
+あっは♥いきなりキスしちゃった♥くすくす♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あんたってマゾだからさー、
 こうやってキスされるとすぐスイッチ入っちゃうでしょ。
 ちゅっ♥ちゅっ♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あんたってマゾだからさー、
+こうやってキスされるとすぐスイッチ入っちゃうでしょ。ちゅっ♥ちゅっ♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ほらビンビンに勃起した。あーぁ。
 ここに挟まれたらもう逃げられないわね。</t>
   </si>
@@ -829,21 +1273,37 @@
 おちんちんは逃げたくないみたいよ？</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;あら、振り払おうとしてるの？
+全然力が入ってないけど♥おちんちんは逃げたくないみたいよ？</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;イキなさい。
 あんたの負けよ。
 くすくす♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;イキなさい。
+あんたの負けよ。くすくす♥</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;なにあんた。必死になっちゃって。
 分かったわよ。
 離れてあげる。</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;なにあんた。必死になっちゃって。
+分かったわよ。離れてあげる。</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;あらあら大変。
 我慢汁だらだらじゃないの。
 床汚さないでよ。</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;あらあら大変。
+我慢汁だらだらじゃないの。床汚さないでよ。</t>
+  </si>
+  <si>
     <t>立体起動</t>
   </si>
   <si>
@@ -854,6 +1314,9 @@
   </si>
   <si>
     <t>一応玄関が開くか調べてみよう・・・</t>
+  </si>
+  <si>
+    <t>Let's check whether the entrance door opens or not...</t>
   </si>
   <si>
     <t>EV066</t>
@@ -1118,31 +1581,61 @@
     <t>\C[3]※ARPGの操作について\C[0]</t>
   </si>
   <si>
+    <t>\C[3]※This game is an ARPG.\C[0]</t>
+  </si>
+  <si>
     <t>武器を装備して『Aキー』を押すことで攻撃を行えます。
 淫魔には効きませんが、魔物を倒したり、
 障害物を取り除いたり出来ます。</t>
   </si>
   <si>
+    <t xml:space="preserve">Push the 『A Button』 to attack with your equipped weapon.
+Though this will have no effect on succubi, you can defeat monsters
+and obstacles in this way. </t>
+  </si>
+  <si>
     <t>また、『Dキー』を押している間は向きを固定して移動できます。
 徘徊しているオークを攻撃することで
 経験値を稼ぐことが出来ます。</t>
   </si>
   <si>
+    <t>Also, you can strafe by pushing the 『D Button』.
+You can earn EXP by defeating the roaming orcs.</t>
+  </si>
+  <si>
     <t>Aキー：攻撃を放つ（ショット）
 Dキー：向きを固定して移動する</t>
   </si>
   <si>
+    <t>A Button: Attack (Shoot)
+D Button: Move in a fixed direction</t>
+  </si>
+  <si>
     <t>メニューから先ほど入手した『果物ナイフ』を装備してみましょう。</t>
   </si>
   <si>
+    <t>For now, try equipping the 『Fruit Knife』
+you obtained earlier from the menu.</t>
+  </si>
+  <si>
     <t>鏡に自分が映っている・・・</t>
   </si>
   <si>
+    <t>It's your reflection in the mirror...</t>
+  </si>
+  <si>
     <t>\n&lt;\n[1]&gt;（頑張れ私・・・！負けるな・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;（I have to do my best...! I won't lose...）</t>
   </si>
   <si>
     <t>\n&lt;\n[1]&gt;（囚人服・・・
 心まで囚われてたまるか・・・）</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I may be a captured prisoner...
+but they will never capture my heart...)</t>
   </si>
   <si>
     <t>EV102</t>
@@ -1241,6 +1734,9 @@
     <t>見ない</t>
   </si>
   <si>
+    <t>Don't see</t>
+  </si>
+  <si>
     <t>棒はお風呂場、
 重くて硬い物は2F執事の部屋（シィナの部屋）にあります。</t>
   </si>
@@ -1255,12 +1751,23 @@
     <t>2Fに上がるには・・・</t>
   </si>
   <si>
+    <t>How to get up to the 2F...</t>
+  </si>
+  <si>
     <t>答えを見る</t>
+  </si>
+  <si>
+    <t>See solution</t>
   </si>
   <si>
     <t>リリーに3回挿入して射精を我慢してください。
 レベルを上げる、もしくは精力増強剤を使う事で
 突破がしやすくなります。</t>
+  </si>
+  <si>
+    <t>You will need to thrust into Lily 3 times without ejaculating.
+Raising your level or using an energy boosting item will make this
+easier.</t>
   </si>
   <si>
     <t>リリーの日記</t>
@@ -1827,1417 +2334,1912 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="D47" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>93</v>
+      </c>
+      <c r="D52" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>103</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="D58" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>107</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>111</v>
+      </c>
+      <c r="D61" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>113</v>
+      </c>
+      <c r="D62" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>119</v>
+      </c>
+      <c r="D65" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>127</v>
+      </c>
+      <c r="D69" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>129</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>131</v>
+      </c>
+      <c r="D71" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>133</v>
+      </c>
+      <c r="D72" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>135</v>
+      </c>
+      <c r="D73" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>137</v>
+      </c>
+      <c r="D74" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>139</v>
+      </c>
+      <c r="D75" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>141</v>
+      </c>
+      <c r="D76" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>143</v>
+      </c>
+      <c r="D77" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>145</v>
+      </c>
+      <c r="D78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>147</v>
+      </c>
+      <c r="D79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>148</v>
+      </c>
+      <c r="D80" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>101</v>
+        <v>150</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>152</v>
+      </c>
+      <c r="D82" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>103</v>
+        <v>154</v>
+      </c>
+      <c r="D83" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>158</v>
+      </c>
+      <c r="D85" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>160</v>
+      </c>
+      <c r="D86" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>162</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>164</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>166</v>
+      </c>
+      <c r="D89" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>110</v>
+        <v>168</v>
+      </c>
+      <c r="D90" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>111</v>
+        <v>170</v>
+      </c>
+      <c r="D91" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>172</v>
+      </c>
+      <c r="D92" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>113</v>
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>114</v>
+        <v>176</v>
+      </c>
+      <c r="D94" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>178</v>
+      </c>
+      <c r="D95" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>116</v>
+        <v>180</v>
+      </c>
+      <c r="D96" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="D97" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>186</v>
+      </c>
+      <c r="D99" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>188</v>
+      </c>
+      <c r="D100" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>190</v>
+      </c>
+      <c r="D101" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>192</v>
+      </c>
+      <c r="D102" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>194</v>
+      </c>
+      <c r="D103" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>196</v>
+      </c>
+      <c r="D104" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>198</v>
+      </c>
+      <c r="D105" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>200</v>
+      </c>
+      <c r="D106" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>202</v>
+      </c>
+      <c r="D107" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>204</v>
+      </c>
+      <c r="D108" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>206</v>
+      </c>
+      <c r="D109" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>208</v>
+      </c>
+      <c r="D110" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>209</v>
+      </c>
+      <c r="D111" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>210</v>
+      </c>
+      <c r="D112" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>211</v>
+      </c>
+      <c r="D113" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>212</v>
+      </c>
+      <c r="D114" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>214</v>
+      </c>
+      <c r="D115" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>215</v>
+      </c>
+      <c r="D116" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>216</v>
+      </c>
+      <c r="D117" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>217</v>
+      </c>
+      <c r="D118" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>218</v>
+      </c>
+      <c r="D119" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>219</v>
+      </c>
+      <c r="D120" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>220</v>
+      </c>
+      <c r="D121" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>221</v>
+      </c>
+      <c r="D122" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>222</v>
+      </c>
+      <c r="D123" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>223</v>
+      </c>
+      <c r="D124" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>224</v>
+      </c>
+      <c r="D125" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>226</v>
+      </c>
+      <c r="D126" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>227</v>
+      </c>
+      <c r="D127" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>228</v>
+      </c>
+      <c r="D128" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>230</v>
+      </c>
+      <c r="D129" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>231</v>
+      </c>
+      <c r="D130" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>233</v>
+      </c>
+      <c r="D131" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>235</v>
+      </c>
+      <c r="D132" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>237</v>
+      </c>
+      <c r="D133" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>239</v>
+      </c>
+      <c r="D134" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>241</v>
+      </c>
+      <c r="D135" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>243</v>
+      </c>
+      <c r="D136" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>245</v>
+      </c>
+      <c r="D137" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>247</v>
+      </c>
+      <c r="D138" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>249</v>
+      </c>
+      <c r="D139" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>250</v>
+      </c>
+      <c r="D140" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>251</v>
+      </c>
+      <c r="D141" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>253</v>
+      </c>
+      <c r="D142" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>255</v>
+      </c>
+      <c r="D143" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>256</v>
+      </c>
+      <c r="D144" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>257</v>
+      </c>
+      <c r="D145" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>259</v>
+      </c>
+      <c r="D146" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>261</v>
+      </c>
+      <c r="D147" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>262</v>
+      </c>
+      <c r="D148" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>264</v>
+      </c>
+      <c r="D149" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>266</v>
+      </c>
+      <c r="D150" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>267</v>
+      </c>
+      <c r="D151" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>268</v>
+      </c>
+      <c r="D152" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>269</v>
+      </c>
+      <c r="D153" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>270</v>
+      </c>
+      <c r="D154" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>271</v>
+      </c>
+      <c r="D155" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>272</v>
+      </c>
+      <c r="D156" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>274</v>
+      </c>
+      <c r="D157" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>276</v>
+      </c>
+      <c r="D158" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>277</v>
+      </c>
+      <c r="D159" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>279</v>
+      </c>
+      <c r="D160" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>281</v>
+      </c>
+      <c r="D161" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>283</v>
+      </c>
+      <c r="D162" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>285</v>
+      </c>
+      <c r="D163" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>287</v>
+      </c>
+      <c r="D164" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>289</v>
+      </c>
+      <c r="D165" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>291</v>
+      </c>
+      <c r="D166" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>293</v>
+      </c>
+      <c r="D167" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>294</v>
+      </c>
+      <c r="D168" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>296</v>
+      </c>
+      <c r="D169" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>297</v>
+      </c>
+      <c r="D170" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>299</v>
+      </c>
+      <c r="D171" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>301</v>
+      </c>
+      <c r="D172" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>303</v>
+      </c>
+      <c r="D173" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>304</v>
+      </c>
+      <c r="D174" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>305</v>
+      </c>
+      <c r="D175" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>306</v>
+      </c>
+      <c r="D176" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>307</v>
+      </c>
+      <c r="D177" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>308</v>
+      </c>
+      <c r="D178" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>310</v>
+      </c>
+      <c r="D179" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>312</v>
+      </c>
+      <c r="D180" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>313</v>
+      </c>
+      <c r="D181" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>315</v>
+      </c>
+      <c r="D182" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>317</v>
+      </c>
+      <c r="D183" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>319</v>
+      </c>
+      <c r="D184" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>321</v>
+      </c>
+      <c r="D185" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>322</v>
+      </c>
+      <c r="D186" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>323</v>
+      </c>
+      <c r="D187" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>324</v>
+      </c>
+      <c r="D188" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>326</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>342</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>344</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="C211" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="C212" t="s">
-        <v>235</v>
+        <v>351</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>236</v>
+        <v>352</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="C215" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="C216" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="C217" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>247</v>
+        <v>363</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>250</v>
+        <v>366</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>251</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>252</v>
+        <v>368</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>253</v>
+        <v>369</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>254</v>
+        <v>370</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>255</v>
+        <v>371</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>256</v>
+        <v>372</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>257</v>
+        <v>373</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>258</v>
+        <v>374</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>259</v>
+        <v>375</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>260</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>261</v>
+        <v>377</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>262</v>
+        <v>378</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>263</v>
+        <v>379</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>264</v>
+        <v>380</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>266</v>
+        <v>382</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>267</v>
+        <v>383</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>268</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>269</v>
+        <v>385</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>272</v>
+        <v>388</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>273</v>
+        <v>389</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>275</v>
+        <v>391</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>276</v>
+        <v>392</v>
+      </c>
+      <c r="D250" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>277</v>
+        <v>394</v>
+      </c>
+      <c r="D251" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>278</v>
+        <v>396</v>
+      </c>
+      <c r="D252" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>279</v>
+        <v>398</v>
+      </c>
+      <c r="D253" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>280</v>
+        <v>400</v>
+      </c>
+      <c r="D254" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>281</v>
+        <v>402</v>
+      </c>
+      <c r="D255" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>282</v>
+        <v>404</v>
+      </c>
+      <c r="D256" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>283</v>
+        <v>406</v>
+      </c>
+      <c r="D257" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>284</v>
+        <v>408</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>285</v>
+        <v>409</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>286</v>
+        <v>410</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>288</v>
+        <v>412</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>289</v>
+        <v>413</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>292</v>
+        <v>416</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>293</v>
+        <v>417</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>299</v>
+        <v>423</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>302</v>
+        <v>426</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>303</v>
+        <v>427</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>304</v>
+        <v>428</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>305</v>
+        <v>429</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>308</v>
+        <v>432</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>312</v>
+        <v>436</v>
+      </c>
+      <c r="D286" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>313</v>
+        <v>438</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>314</v>
+        <v>439</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>315</v>
+        <v>440</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>316</v>
+        <v>441</v>
+      </c>
+      <c r="D290" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>317</v>
+        <v>443</v>
+      </c>
+      <c r="D291" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>318</v>
+        <v>445</v>
+      </c>
+      <c r="D292" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>319</v>
+        <v>447</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>320</v>
+        <v>448</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>321</v>
+        <v>449</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>322</v>
+        <v>450</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>324</v>
+        <v>452</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>325</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map118.xlsx
+++ b/data/Map118.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
   <si>
     <t>自動実行</t>
   </si>
@@ -164,8 +164,11 @@
 待ってたら来ると思ったよー！</t>
   </si>
   <si>
-    <t>\n&lt;Lime&gt;I was just thinking, "there's was no time to escape at all-".
+    <t>\n&lt;Lime&gt;I was just thinking, "there was no time to escape at all-".
 You hid somewhere, right? So I thought to wait here, just in case!</t>
+  </si>
+  <si>
+    <t>ーーーーー基本変更点ーーーーー</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;にへへへへー♥
@@ -402,7 +405,7 @@
     <t>\n&lt;シィナ&gt;アーコ来てんのかー！？</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;So did you bring them or not Ako-!?</t>
+    <t>\n&lt;Shina&gt;So did you bring them or not Ako-!?</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;隠れて！</t>
@@ -415,7 +418,7 @@
 持ってきたにゃ？</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;My cigarettes-nya.
+    <t>\n&lt;Shina&gt;My cigarettes-nya.
 You brought them right-nya?</t>
   </si>
   <si>
@@ -434,7 +437,7 @@
 あと次しぃにゃんって呼んだら殺す！</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;Succubus don't pay taxes!!
+    <t>\n&lt;Shina&gt;Succubus don't pay taxes!!
 A whole carton! A-And call me Shi-nya again and
 you'll really be in for it!</t>
   </si>
@@ -451,7 +454,7 @@
     <t>\n&lt;シィナ&gt;アーココロス！</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;I'll, I'll kill you!</t>
+    <t>\n&lt;Shina&gt;I'll, I'll kill you!</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;（可愛い・・・）</t>
@@ -465,7 +468,7 @@
 じゃーなバーカ。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;S-Speaking with you really makes me mad-nya.
+    <t>\n&lt;Shina&gt;S-Speaking with you really makes me mad-nya.
 Now go home. See ya later, idiot.</t>
   </si>
   <si>
@@ -481,7 +484,7 @@
 今人間と脱出ゲームやってるから全部閉め切ってるにゃん。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;Ah. That's right-nya.
+    <t>\n&lt;Shina&gt;Ah. That's right-nya.
 Because of an escape game we're playing with a human right
 now, it's completely shut-nya.</t>
   </si>
@@ -496,7 +499,7 @@
 アタシらにチンポ犯されまくって干物になるのが先かの・・・</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;A game of what will come first...
+    <t>\n&lt;Shina&gt;A game of what will come first...
 The human escaping, or getting their dick totally
 milked until they become our semen slave...</t>
   </si>
@@ -504,7 +507,7 @@
     <t>\n&lt;シィナ&gt;まさにセイシをかけたゲームにゃ！</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;A game of life and death-nya!</t>
+    <t>\n&lt;Shina&gt;A game of life and death-nya!</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;そう・・・
@@ -518,7 +521,7 @@
     <t>\n&lt;シィナ&gt;邪魔すんなよ。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;You'd better not get in our way.</t>
+    <t>\n&lt;Shina&gt;You'd better not get in our way.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;えっ？ちょっと待って。
@@ -534,7 +537,7 @@
 カートンありがとにゃー。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;I don't know about you.
+    <t>\n&lt;Shina&gt;I don't know about you.
 Trace the grooves of the floor or something.
 Thanks for the cigars-nya.</t>
   </si>
@@ -914,7 +917,20 @@
     <t>&lt;enemy:99&gt;</t>
   </si>
   <si>
+    <t>変数203（ARGP攻撃種類）
+1斬　2打撃　3水　4火　5雷
+6誘惑　7食べ物
+特殊206（個別攻撃種類）
+1リンゴ　2皿　3卵</t>
+  </si>
+  <si>
     <t>リリー召喚魔法陣</t>
+  </si>
+  <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;ちょっと待ちなさい。
@@ -1108,6 +1124,12 @@
 一生後悔するにゃぁ。ほらこっち見ろにゃん。</t>
   </si>
   <si>
+    <t>ーーーーー待機or攻撃アニメSE選択ーーーーー</t>
+  </si>
+  <si>
+    <t>--------ここから誘惑------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;しーこ♥しーこにゃ♥
 これ見てるとムズムズしてくるにゃぁ？</t>
   </si>
@@ -1139,6 +1161,9 @@
 これ見て頭バカにするにゃん♥れろれろー♥</t>
   </si>
   <si>
+    <t>--------ここから選択肢-------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;たったこれだけで我慢汁垂れ流しになってるし。
 そんなよわよわチンコどうせ無理にゃ。
 今喰ってやるにゃ。</t>
@@ -1157,6 +1182,9 @@
 よーわ。じゃあまず自分で扱いて見せろにゃ。</t>
   </si>
   <si>
+    <t>--------ここからクリア------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;くんくん・・・
 にゃぁ・・・♥
 我慢させればさせるほどいい匂いになるにゃぁ。</t>
@@ -1246,6 +1274,10 @@
 ほらこっち向きなさい♥</t>
   </si>
   <si>
+    <t>\n&lt;Lily&gt;捕まえたっ♥
+ほらこっち向きなさい♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ちゅー♥
 あっは♥いきなりキスしちゃった♥
 くすくす♥</t>
@@ -1291,7 +1323,7 @@
 離れてあげる。</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;なにあんた。必死になっちゃって。
+    <t>\n&lt;Lily&gt;なにあんた。必死になっちゃって。
 分かったわよ。離れてあげる。</t>
   </si>
   <si>
@@ -1300,7 +1332,7 @@
 床汚さないでよ。</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;あらあら大変。
+    <t>\n&lt;Lily&gt;あらあら大変。
 我慢汁だらだらじゃないの。床汚さないでよ。</t>
   </si>
   <si>
@@ -1384,6 +1416,9 @@
 ほら見て♥</t>
   </si>
   <si>
+    <t>ーーーーー待機or攻撃アニメ選択ーーーーー</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ふーり♥ふーり♥
 あはっ♥
 見ちゃったわね♥</t>
@@ -1426,7 +1461,7 @@
 あんたそれでもハンターなの？</t>
   </si>
   <si>
-    <t>\ n&lt;\n[3]&gt; Heehee ♥ 
+    <t>\n&lt;\n[3]&gt;Teehee♥ 
 Just a little teasing made you react like that?
 Can you even call yourself a hunter anymore?</t>
   </si>
@@ -1448,7 +1483,7 @@
   <si>
     <t>\n&lt;\n[3]&gt;I hope you like it. 
 Show me more♥
- Little succubus hunter♥</t>
+Little succubus hunter♥</t>
   </si>
   <si>
     <t>果物ナイフが置いてある・・・
@@ -1590,8 +1625,8 @@
   </si>
   <si>
     <t xml:space="preserve">Push the 『A Button』 to attack with your equipped weapon.
-Though this will have no effect on succubi, you can defeat monsters
-and obstacles in this way. </t>
+Though this will have no effect on succubi,
+you can defeat monsters and obstacles in this way. </t>
   </si>
   <si>
     <t>また、『Dキー』を押している間は向きを固定して移動できます。
@@ -2130,7 +2165,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2138,2108 +2173,2441 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="D26" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>58</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>60</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="D35" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>64</v>
       </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>66</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="D38" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>74</v>
       </c>
-      <c r="D41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>79</v>
       </c>
-      <c r="D44" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>81</v>
       </c>
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>82</v>
       </c>
-      <c r="D46" t="s">
+      <c r="B46" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="D47" t="s">
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>85</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>87</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>89</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>91</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>93</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>95</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>97</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>99</v>
       </c>
-      <c r="D55" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>101</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>103</v>
       </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>105</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>107</v>
       </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>109</v>
       </c>
-      <c r="D60" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="D61" t="s">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="B62" t="s">
         <v>113</v>
       </c>
-      <c r="D62" t="s">
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>115</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>117</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
         <v>119</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
         <v>121</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>123</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>125</v>
       </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
         <v>127</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>129</v>
       </c>
-      <c r="D70" t="s">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>131</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>133</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>135</v>
       </c>
-      <c r="D73" t="s">
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>137</v>
       </c>
-      <c r="D74" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>139</v>
       </c>
-      <c r="D75" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
         <v>141</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="B77" t="s">
         <v>143</v>
       </c>
-      <c r="D77" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="B78" t="s">
         <v>145</v>
       </c>
-      <c r="D78" t="s">
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>147</v>
       </c>
-      <c r="D79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>148</v>
       </c>
-      <c r="D80" t="s">
+      <c r="B80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>150</v>
       </c>
-      <c r="D81" t="s">
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>152</v>
       </c>
-      <c r="D82" t="s">
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+      <c r="B83" t="s">
         <v>154</v>
       </c>
-      <c r="D83" t="s">
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
         <v>156</v>
       </c>
-      <c r="D84" t="s">
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>158</v>
       </c>
-      <c r="D85" t="s">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
         <v>160</v>
       </c>
-      <c r="D86" t="s">
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="B87" t="s">
         <v>162</v>
       </c>
-      <c r="D87" t="s">
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+      <c r="B88" t="s">
         <v>164</v>
       </c>
-      <c r="D88" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+      <c r="B89" t="s">
         <v>166</v>
       </c>
-      <c r="D89" t="s">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
         <v>168</v>
       </c>
-      <c r="D90" t="s">
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+      <c r="B91" t="s">
         <v>170</v>
       </c>
-      <c r="D91" t="s">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+      <c r="B92" t="s">
         <v>172</v>
       </c>
-      <c r="D92" t="s">
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
         <v>174</v>
       </c>
-      <c r="D93" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="B94" t="s">
         <v>176</v>
       </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="B95" t="s">
         <v>178</v>
       </c>
-      <c r="D95" t="s">
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="B96" t="s">
         <v>180</v>
       </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
         <v>182</v>
       </c>
-      <c r="D97" t="s">
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>184</v>
       </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+      <c r="B99" t="s">
         <v>186</v>
       </c>
-      <c r="D99" t="s">
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+      <c r="B100" t="s">
         <v>188</v>
       </c>
-      <c r="D100" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+      <c r="B101" t="s">
         <v>190</v>
       </c>
-      <c r="D101" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+      <c r="B102" t="s">
         <v>192</v>
       </c>
-      <c r="D102" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+      <c r="B103" t="s">
         <v>194</v>
       </c>
-      <c r="D103" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+      <c r="B104" t="s">
         <v>196</v>
       </c>
-      <c r="D104" t="s">
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
+      <c r="B105" t="s">
         <v>198</v>
       </c>
-      <c r="D105" t="s">
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
+      <c r="B106" t="s">
         <v>200</v>
       </c>
-      <c r="D106" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>202</v>
       </c>
-      <c r="D107" t="s">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+      <c r="B108" t="s">
         <v>204</v>
       </c>
-      <c r="D108" t="s">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>206</v>
       </c>
-      <c r="D109" t="s">
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+      <c r="B110" t="s">
         <v>208</v>
       </c>
-      <c r="D110" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>209</v>
       </c>
-      <c r="D111" t="s">
+      <c r="B111" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>210</v>
       </c>
-      <c r="D112" t="s">
+      <c r="B112" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>211</v>
       </c>
-      <c r="D113" t="s">
+      <c r="B113" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>212</v>
       </c>
-      <c r="D114" t="s">
+      <c r="B114" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+      <c r="B115" t="s">
         <v>214</v>
       </c>
-      <c r="D115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>215</v>
       </c>
-      <c r="D116" t="s">
+      <c r="B116" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>216</v>
       </c>
-      <c r="D117" t="s">
+      <c r="B117" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>217</v>
       </c>
-      <c r="D118" t="s">
+      <c r="B118" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>218</v>
       </c>
-      <c r="D119" t="s">
+      <c r="B119" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>219</v>
       </c>
-      <c r="D120" t="s">
+      <c r="B120" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>220</v>
       </c>
-      <c r="D121" t="s">
+      <c r="B121" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>221</v>
       </c>
-      <c r="D122" t="s">
+      <c r="B122" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>222</v>
       </c>
-      <c r="D123" t="s">
+      <c r="B123" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>223</v>
       </c>
-      <c r="D124" t="s">
+      <c r="B124" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>224</v>
       </c>
-      <c r="D125" t="s">
+      <c r="B125" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
+      <c r="B126" t="s">
         <v>226</v>
       </c>
-      <c r="D126" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>227</v>
       </c>
-      <c r="D127" t="s">
+      <c r="B127" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>228</v>
       </c>
-      <c r="D128" t="s">
+      <c r="B128" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
         <v>230</v>
       </c>
-      <c r="D129" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>231</v>
       </c>
-      <c r="D130" t="s">
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+      <c r="B131" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>233</v>
       </c>
-      <c r="D131" t="s">
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>235</v>
       </c>
-      <c r="D132" t="s">
+      <c r="B134" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>237</v>
       </c>
-      <c r="D133" t="s">
+      <c r="B135" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>239</v>
       </c>
-      <c r="D134" t="s">
+      <c r="B136" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>241</v>
       </c>
-      <c r="D135" t="s">
+      <c r="B137" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>243</v>
       </c>
-      <c r="D136" t="s">
+      <c r="B138" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>245</v>
       </c>
-      <c r="D137" t="s">
+      <c r="B139" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>247</v>
       </c>
-      <c r="D138" t="s">
+      <c r="B140" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>249</v>
       </c>
-      <c r="D139" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
+      <c r="B141" t="s">
         <v>250</v>
       </c>
-      <c r="D140" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>251</v>
       </c>
-      <c r="D141" t="s">
+      <c r="B142" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>253</v>
       </c>
-      <c r="D142" t="s">
+      <c r="B143" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
+      <c r="B144" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>255</v>
       </c>
-      <c r="D143" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
+      <c r="B145" t="s">
         <v>256</v>
       </c>
-      <c r="D144" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>257</v>
       </c>
-      <c r="D145" t="s">
+      <c r="B146" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>259</v>
       </c>
-      <c r="D146" t="s">
+      <c r="B147" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+      <c r="B148" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>261</v>
       </c>
-      <c r="D147" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+      <c r="B149" t="s">
         <v>262</v>
       </c>
-      <c r="D148" t="s">
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+      <c r="B150" t="s">
         <v>264</v>
       </c>
-      <c r="D149" t="s">
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
+      <c r="B151" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>266</v>
       </c>
-      <c r="D150" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
+      <c r="B152" t="s">
         <v>267</v>
       </c>
-      <c r="D151" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>268</v>
       </c>
-      <c r="D152" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
         <v>269</v>
       </c>
-      <c r="D153" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>270</v>
       </c>
-      <c r="D154" t="s">
+      <c r="B154" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>271</v>
       </c>
-      <c r="D155" t="s">
+      <c r="B155" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>272</v>
       </c>
-      <c r="D156" t="s">
+      <c r="B156" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>274</v>
       </c>
-      <c r="D157" t="s">
+      <c r="B158" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
+      <c r="B159" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>276</v>
       </c>
-      <c r="D158" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
+      <c r="B160" t="s">
         <v>277</v>
       </c>
-      <c r="D159" t="s">
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
+      <c r="B161" t="s">
         <v>279</v>
       </c>
-      <c r="D160" t="s">
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>281</v>
       </c>
-      <c r="D161" t="s">
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+      <c r="B164" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
         <v>283</v>
       </c>
-      <c r="D162" t="s">
+      <c r="B165" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>285</v>
       </c>
-      <c r="D163" t="s">
+      <c r="B166" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>287</v>
       </c>
-      <c r="D164" t="s">
+      <c r="B167" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>289</v>
       </c>
-      <c r="D165" t="s">
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+      <c r="B169" t="s">
         <v>291</v>
       </c>
-      <c r="D166" t="s">
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
+      <c r="B170" t="s">
         <v>293</v>
       </c>
-      <c r="D167" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>294</v>
       </c>
-      <c r="D168" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
+      <c r="B172" t="s">
         <v>296</v>
       </c>
-      <c r="D169" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>297</v>
       </c>
-      <c r="D170" t="s">
+      <c r="B173" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>299</v>
       </c>
-      <c r="D171" t="s">
+      <c r="B174" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>301</v>
       </c>
-      <c r="D172" t="s">
+      <c r="B175" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
+      <c r="B176" t="s">
         <v>303</v>
       </c>
-      <c r="D173" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>304</v>
       </c>
-      <c r="D174" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
+      <c r="B177" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>305</v>
       </c>
-      <c r="D175" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
+      <c r="B178" t="s">
         <v>306</v>
       </c>
-      <c r="D176" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" t="s">
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>307</v>
       </c>
-      <c r="D177" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
+      <c r="B179" t="s">
         <v>308</v>
       </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" t="s">
+      <c r="B180" t="s">
         <v>310</v>
       </c>
-      <c r="D179" t="s">
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" t="s">
+      <c r="B181" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>312</v>
       </c>
-      <c r="D180" t="s">
+      <c r="B182" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>313</v>
       </c>
-      <c r="D181" t="s">
+      <c r="B183" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
+      <c r="B184" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>315</v>
       </c>
-      <c r="D182" t="s">
+      <c r="B185" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>317</v>
       </c>
-      <c r="D183" t="s">
+      <c r="B186" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>319</v>
       </c>
-      <c r="D184" t="s">
+      <c r="B187" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>321</v>
       </c>
-      <c r="D185" t="s">
+      <c r="B188" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>322</v>
       </c>
-      <c r="D186" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" t="s">
+      <c r="B189" t="s">
         <v>323</v>
       </c>
-      <c r="D187" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" t="s">
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>324</v>
       </c>
-      <c r="D188" t="s">
+      <c r="B190" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" t="s">
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" t="s">
+      <c r="B191" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
+      <c r="B192" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="B193" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="B194" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="B195" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="B196" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>335</v>
+      </c>
+      <c r="B197" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>336</v>
+      </c>
+      <c r="B198" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>337</v>
+      </c>
+      <c r="B199" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>338</v>
+      </c>
+      <c r="B200" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>339</v>
+      </c>
+      <c r="B201" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>340</v>
+      </c>
+      <c r="B202" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>341</v>
+      </c>
+      <c r="B203" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>342</v>
+      </c>
+      <c r="B204" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>343</v>
+      </c>
+      <c r="B205" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>344</v>
+      </c>
+      <c r="B206" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>345</v>
+      </c>
+      <c r="B207" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>346</v>
+      </c>
+      <c r="B208" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>347</v>
+      </c>
+      <c r="B209" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>348</v>
+      </c>
+      <c r="B210" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>348</v>
-      </c>
-      <c r="C211" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="B211" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>350</v>
       </c>
-      <c r="C212" t="s">
+      <c r="B212" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
-      <c r="A213" t="s">
+      <c r="B213" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
+      <c r="B214" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" t="s">
+      <c r="B215" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
         <v>354</v>
       </c>
-      <c r="C215" t="s">
+      <c r="B216" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" t="s">
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>356</v>
       </c>
-      <c r="C216" t="s">
+      <c r="B218" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
+      <c r="B219" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
         <v>358</v>
       </c>
-      <c r="C217" t="s">
+      <c r="B220" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
+      <c r="B221" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
+      <c r="B222" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
+      <c r="B223" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
+      <c r="B224" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
+      <c r="B225" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="B226" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>370</v>
+      </c>
+      <c r="B227" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>371</v>
+      </c>
+      <c r="B228" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>372</v>
+      </c>
+      <c r="B229" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>373</v>
+      </c>
+      <c r="B230" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>374</v>
+      </c>
+      <c r="B231" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>375</v>
+      </c>
+      <c r="B232" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>376</v>
+      </c>
+      <c r="B233" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>377</v>
+      </c>
+      <c r="B234" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>378</v>
+      </c>
+      <c r="B235" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>379</v>
+      </c>
+      <c r="B236" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>380</v>
+      </c>
+      <c r="B237" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>381</v>
+      </c>
+      <c r="B238" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>382</v>
+      </c>
+      <c r="B239" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>383</v>
+      </c>
+      <c r="B240" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>384</v>
+      </c>
+      <c r="B241" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>385</v>
+      </c>
+      <c r="B242" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>386</v>
+      </c>
+      <c r="B243" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>387</v>
+      </c>
+      <c r="B244" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>388</v>
+      </c>
+      <c r="B245" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>389</v>
+      </c>
+      <c r="B246" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>390</v>
+      </c>
+      <c r="B247" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>391</v>
+      </c>
+      <c r="B248" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>392</v>
+      </c>
+      <c r="B249" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>392</v>
-      </c>
-      <c r="D250" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="B250" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>394</v>
       </c>
-      <c r="D251" t="s">
+      <c r="B251" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="A252" t="s">
+      <c r="B252" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
         <v>396</v>
       </c>
-      <c r="D252" t="s">
+      <c r="B253" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" t="s">
+      <c r="B254" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
         <v>398</v>
       </c>
-      <c r="D253" t="s">
+      <c r="B255" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
-      <c r="A254" t="s">
+      <c r="B256" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>400</v>
       </c>
-      <c r="D254" t="s">
+      <c r="B257" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
-      <c r="A255" t="s">
+      <c r="B258" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
         <v>402</v>
       </c>
-      <c r="D255" t="s">
+      <c r="B259" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
         <v>404</v>
       </c>
-      <c r="D256" t="s">
+      <c r="B260" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" t="s">
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
         <v>406</v>
       </c>
-      <c r="D257" t="s">
+      <c r="B261" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" t="s">
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
+      <c r="B262" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
+      <c r="B263" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
+      <c r="B264" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" t="s">
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" t="s">
+      <c r="B265" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="B266" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>418</v>
+      </c>
+      <c r="B267" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>419</v>
+      </c>
+      <c r="B268" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4">
+        <v>420</v>
+      </c>
+      <c r="B269" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>421</v>
+      </c>
+      <c r="B270" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4">
+        <v>422</v>
+      </c>
+      <c r="B271" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
+        <v>423</v>
+      </c>
+      <c r="B272" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
+        <v>424</v>
+      </c>
+      <c r="B273" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+        <v>425</v>
+      </c>
+      <c r="B274" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
+        <v>426</v>
+      </c>
+      <c r="B275" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
+        <v>427</v>
+      </c>
+      <c r="B276" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
+        <v>428</v>
+      </c>
+      <c r="B277" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
+        <v>429</v>
+      </c>
+      <c r="B278" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
+        <v>430</v>
+      </c>
+      <c r="B279" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
+        <v>431</v>
+      </c>
+      <c r="B280" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
+        <v>432</v>
+      </c>
+      <c r="B281" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
+        <v>433</v>
+      </c>
+      <c r="B282" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
+        <v>434</v>
+      </c>
+      <c r="B283" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
+        <v>435</v>
+      </c>
+      <c r="B284" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
+        <v>436</v>
+      </c>
+      <c r="B285" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>436</v>
-      </c>
-      <c r="D286" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="B286" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="B287" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="B288" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="B289" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>441</v>
       </c>
-      <c r="D290" t="s">
+      <c r="B290" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" t="s">
+      <c r="B291" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
         <v>443</v>
       </c>
-      <c r="D291" t="s">
+      <c r="B292" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" t="s">
+      <c r="B293" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
         <v>445</v>
       </c>
-      <c r="D292" t="s">
+      <c r="B294" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" t="s">
+      <c r="B295" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" t="s">
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" t="s">
+      <c r="B296" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" t="s">
+      <c r="B297" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" t="s">
+      <c r="B298" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" t="s">
+      <c r="B299" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" t="s">
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
         <v>453</v>
+      </c>
+      <c r="B300" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>455</v>
+      </c>
+      <c r="B301" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>457</v>
+      </c>
+      <c r="B302" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>458</v>
+      </c>
+      <c r="B303" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>459</v>
+      </c>
+      <c r="B304" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>460</v>
+      </c>
+      <c r="B305" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>461</v>
+      </c>
+      <c r="B306" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>462</v>
+      </c>
+      <c r="B307" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>463</v>
+      </c>
+      <c r="B308" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map118.xlsx
+++ b/data/Map118.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BD268-952D-463E-9269-FF502B19B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="660" yWindow="855" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="467">
   <si>
     <t>自動実行</t>
   </si>
@@ -1828,18 +1833,24 @@
     <t>アーコの帳簿
 例のブツ</t>
   </si>
+  <si>
+    <t>Ivy is blocking the entrance… You might be able to do something if you had a weapon.</t>
+  </si>
+  <si>
+    <t>It won't open, but there's no visible keyhole. The door looks poorly constructed and fragile…</t>
+  </si>
+  <si>
+    <t>Looks like the pantry.
+Looks like the pantry. It's locked...
+鍵がかかっている・・・</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1850,28 +1861,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2161,19 +2184,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="83" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2181,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2189,7 +2212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2197,7 +2220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2205,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2213,7 +2236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2221,7 +2244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +2252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2237,7 +2260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2245,7 +2268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2253,7 +2276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2269,7 +2292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2277,7 +2300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2285,7 +2308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2293,7 +2316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2301,7 +2324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2309,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2317,7 +2340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2325,7 +2348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2333,7 +2356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2341,7 +2364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2349,7 +2372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2357,7 +2380,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -2365,12 +2388,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2378,7 +2401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2386,7 +2409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -2394,7 +2417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -2402,7 +2425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2410,7 +2433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2418,7 +2441,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -2426,7 +2449,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -2434,7 +2457,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -2442,7 +2465,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -2450,7 +2473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -2458,7 +2481,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2466,7 +2489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -2474,7 +2497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -2482,7 +2505,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2490,7 +2513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2498,7 +2521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2506,7 +2529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -2514,7 +2537,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -2522,7 +2545,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -2530,7 +2553,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -2538,7 +2561,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -2546,7 +2569,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -2554,7 +2577,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -2562,7 +2585,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -2570,7 +2593,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -2578,7 +2601,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -2586,7 +2609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2594,7 +2617,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -2602,7 +2625,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -2610,7 +2633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -2618,7 +2641,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2626,7 +2649,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -2634,7 +2657,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -2642,7 +2665,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -2650,7 +2673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>110</v>
       </c>
@@ -2658,7 +2681,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -2666,7 +2689,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -2674,7 +2697,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -2682,7 +2705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>118</v>
       </c>
@@ -2690,7 +2713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -2698,7 +2721,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -2706,7 +2729,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -2714,7 +2737,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>126</v>
       </c>
@@ -2722,7 +2745,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -2730,7 +2753,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2738,7 +2761,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -2746,7 +2769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -2754,7 +2777,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -2762,7 +2785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>138</v>
       </c>
@@ -2770,7 +2793,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>140</v>
       </c>
@@ -2778,7 +2801,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>142</v>
       </c>
@@ -2786,7 +2809,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>144</v>
       </c>
@@ -2794,7 +2817,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>146</v>
       </c>
@@ -2802,7 +2825,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -2810,7 +2833,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -2818,7 +2841,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>151</v>
       </c>
@@ -2826,7 +2849,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -2834,7 +2857,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -2842,7 +2865,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>157</v>
       </c>
@@ -2850,7 +2873,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>159</v>
       </c>
@@ -2858,7 +2881,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>161</v>
       </c>
@@ -2866,7 +2889,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>163</v>
       </c>
@@ -2874,7 +2897,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -2882,7 +2905,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -2890,7 +2913,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>169</v>
       </c>
@@ -2898,7 +2921,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>171</v>
       </c>
@@ -2906,7 +2929,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -2914,7 +2937,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>175</v>
       </c>
@@ -2922,7 +2945,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>177</v>
       </c>
@@ -2930,7 +2953,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>179</v>
       </c>
@@ -2938,7 +2961,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -2946,7 +2969,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -2954,7 +2977,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>185</v>
       </c>
@@ -2962,7 +2985,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -2970,7 +2993,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>189</v>
       </c>
@@ -2978,7 +3001,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>191</v>
       </c>
@@ -2986,7 +3009,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>193</v>
       </c>
@@ -2994,7 +3017,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>195</v>
       </c>
@@ -3002,7 +3025,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -3010,7 +3033,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>199</v>
       </c>
@@ -3018,7 +3041,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>201</v>
       </c>
@@ -3026,7 +3049,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>203</v>
       </c>
@@ -3034,7 +3057,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>205</v>
       </c>
@@ -3042,7 +3065,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>207</v>
       </c>
@@ -3050,7 +3073,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>209</v>
       </c>
@@ -3058,7 +3081,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>210</v>
       </c>
@@ -3066,15 +3089,15 @@
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>211</v>
       </c>
-      <c r="B113" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="B113" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>212</v>
       </c>
@@ -3082,7 +3105,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>213</v>
       </c>
@@ -3090,7 +3113,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>215</v>
       </c>
@@ -3098,7 +3121,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>216</v>
       </c>
@@ -3106,7 +3129,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>217</v>
       </c>
@@ -3114,7 +3137,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>218</v>
       </c>
@@ -3122,7 +3145,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>219</v>
       </c>
@@ -3130,7 +3153,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>220</v>
       </c>
@@ -3138,7 +3161,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>221</v>
       </c>
@@ -3146,7 +3169,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -3154,7 +3177,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -3162,7 +3185,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -3170,7 +3193,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>225</v>
       </c>
@@ -3178,15 +3201,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>228</v>
       </c>
@@ -3194,7 +3217,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>229</v>
       </c>
@@ -3202,12 +3225,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>232</v>
       </c>
@@ -3215,17 +3238,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>235</v>
       </c>
@@ -3233,7 +3256,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>237</v>
       </c>
@@ -3241,7 +3264,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -3249,7 +3272,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>241</v>
       </c>
@@ -3257,7 +3280,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>243</v>
       </c>
@@ -3265,7 +3288,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>245</v>
       </c>
@@ -3273,7 +3296,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>247</v>
       </c>
@@ -3281,7 +3304,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>249</v>
       </c>
@@ -3289,7 +3312,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>251</v>
       </c>
@@ -3297,7 +3320,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>253</v>
       </c>
@@ -3305,7 +3328,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>254</v>
       </c>
@@ -3313,7 +3336,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>255</v>
       </c>
@@ -3321,7 +3344,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>257</v>
       </c>
@@ -3329,7 +3352,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>259</v>
       </c>
@@ -3337,7 +3360,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>260</v>
       </c>
@@ -3345,7 +3368,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>261</v>
       </c>
@@ -3353,7 +3376,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>263</v>
       </c>
@@ -3361,7 +3384,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>265</v>
       </c>
@@ -3369,7 +3392,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>266</v>
       </c>
@@ -3377,7 +3400,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>268</v>
       </c>
@@ -3385,15 +3408,15 @@
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>270</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -3401,7 +3424,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>272</v>
       </c>
@@ -3409,7 +3432,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>273</v>
       </c>
@@ -3417,7 +3440,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>274</v>
       </c>
@@ -3425,7 +3448,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>275</v>
       </c>
@@ -3433,7 +3456,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>276</v>
       </c>
@@ -3441,7 +3464,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>278</v>
       </c>
@@ -3449,17 +3472,17 @@
         <v>279</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>282</v>
       </c>
@@ -3467,7 +3490,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>283</v>
       </c>
@@ -3475,7 +3498,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>285</v>
       </c>
@@ -3483,7 +3506,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>287</v>
       </c>
@@ -3491,12 +3514,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>290</v>
       </c>
@@ -3504,7 +3527,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>292</v>
       </c>
@@ -3512,12 +3535,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>295</v>
       </c>
@@ -3525,7 +3548,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>297</v>
       </c>
@@ -3533,7 +3556,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>299</v>
       </c>
@@ -3541,7 +3564,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>301</v>
       </c>
@@ -3549,7 +3572,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>302</v>
       </c>
@@ -3557,7 +3580,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>304</v>
       </c>
@@ -3565,7 +3588,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>305</v>
       </c>
@@ -3573,7 +3596,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>307</v>
       </c>
@@ -3581,7 +3604,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>309</v>
       </c>
@@ -3589,7 +3612,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>311</v>
       </c>
@@ -3597,7 +3620,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>312</v>
       </c>
@@ -3605,7 +3628,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>313</v>
       </c>
@@ -3613,7 +3636,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>314</v>
       </c>
@@ -3621,7 +3644,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>315</v>
       </c>
@@ -3629,7 +3652,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>317</v>
       </c>
@@ -3637,7 +3660,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>319</v>
       </c>
@@ -3645,7 +3668,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>321</v>
       </c>
@@ -3653,7 +3676,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>322</v>
       </c>
@@ -3661,7 +3684,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>324</v>
       </c>
@@ -3669,7 +3692,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>326</v>
       </c>
@@ -3677,7 +3700,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>328</v>
       </c>
@@ -3685,7 +3708,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>330</v>
       </c>
@@ -3693,7 +3716,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>331</v>
       </c>
@@ -3701,7 +3724,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>332</v>
       </c>
@@ -3709,7 +3732,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>333</v>
       </c>
@@ -3717,7 +3740,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>335</v>
       </c>
@@ -3725,7 +3748,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>336</v>
       </c>
@@ -3733,7 +3756,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>337</v>
       </c>
@@ -3741,7 +3764,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>338</v>
       </c>
@@ -3749,7 +3772,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>339</v>
       </c>
@@ -3757,7 +3780,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>340</v>
       </c>
@@ -3765,7 +3788,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>341</v>
       </c>
@@ -3773,7 +3796,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>342</v>
       </c>
@@ -3781,7 +3804,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>343</v>
       </c>
@@ -3789,7 +3812,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>344</v>
       </c>
@@ -3797,7 +3820,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>345</v>
       </c>
@@ -3805,7 +3828,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>346</v>
       </c>
@@ -3813,7 +3836,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>347</v>
       </c>
@@ -3821,7 +3844,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>348</v>
       </c>
@@ -3829,7 +3852,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>349</v>
       </c>
@@ -3837,7 +3860,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>350</v>
       </c>
@@ -3845,7 +3868,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>351</v>
       </c>
@@ -3853,7 +3876,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>352</v>
       </c>
@@ -3861,7 +3884,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>353</v>
       </c>
@@ -3869,7 +3892,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>354</v>
       </c>
@@ -3877,12 +3900,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>356</v>
       </c>
@@ -3890,7 +3913,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>357</v>
       </c>
@@ -3898,7 +3921,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>358</v>
       </c>
@@ -3906,7 +3929,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>360</v>
       </c>
@@ -3914,7 +3937,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>362</v>
       </c>
@@ -3922,7 +3945,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>363</v>
       </c>
@@ -3930,7 +3953,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>364</v>
       </c>
@@ -3938,7 +3961,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>366</v>
       </c>
@@ -3946,7 +3969,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>368</v>
       </c>
@@ -3954,7 +3977,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>370</v>
       </c>
@@ -3962,7 +3985,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>371</v>
       </c>
@@ -3970,7 +3993,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>372</v>
       </c>
@@ -3978,7 +4001,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>373</v>
       </c>
@@ -3986,7 +4009,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>374</v>
       </c>
@@ -3994,7 +4017,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>375</v>
       </c>
@@ -4002,7 +4025,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>376</v>
       </c>
@@ -4010,7 +4033,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>377</v>
       </c>
@@ -4018,7 +4041,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>378</v>
       </c>
@@ -4026,7 +4049,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>379</v>
       </c>
@@ -4034,7 +4057,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>380</v>
       </c>
@@ -4042,7 +4065,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>381</v>
       </c>
@@ -4050,7 +4073,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>382</v>
       </c>
@@ -4058,7 +4081,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>383</v>
       </c>
@@ -4066,7 +4089,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>384</v>
       </c>
@@ -4074,7 +4097,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>385</v>
       </c>
@@ -4082,7 +4105,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>386</v>
       </c>
@@ -4090,7 +4113,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>387</v>
       </c>
@@ -4098,7 +4121,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>388</v>
       </c>
@@ -4106,7 +4129,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>389</v>
       </c>
@@ -4114,7 +4137,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>390</v>
       </c>
@@ -4122,7 +4145,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>391</v>
       </c>
@@ -4130,7 +4153,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>392</v>
       </c>
@@ -4138,7 +4161,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>393</v>
       </c>
@@ -4146,7 +4169,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>394</v>
       </c>
@@ -4154,7 +4177,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>395</v>
       </c>
@@ -4162,7 +4185,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>396</v>
       </c>
@@ -4170,7 +4193,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>397</v>
       </c>
@@ -4178,7 +4201,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>398</v>
       </c>
@@ -4186,7 +4209,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>399</v>
       </c>
@@ -4194,7 +4217,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>400</v>
       </c>
@@ -4202,7 +4225,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>401</v>
       </c>
@@ -4210,7 +4233,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>402</v>
       </c>
@@ -4218,7 +4241,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>404</v>
       </c>
@@ -4226,7 +4249,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>406</v>
       </c>
@@ -4234,7 +4257,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>408</v>
       </c>
@@ -4242,7 +4265,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>410</v>
       </c>
@@ -4250,7 +4273,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>412</v>
       </c>
@@ -4258,7 +4281,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>414</v>
       </c>
@@ -4266,7 +4289,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>416</v>
       </c>
@@ -4274,7 +4297,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>418</v>
       </c>
@@ -4282,7 +4305,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>419</v>
       </c>
@@ -4290,7 +4313,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>420</v>
       </c>
@@ -4298,7 +4321,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>421</v>
       </c>
@@ -4306,7 +4329,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>422</v>
       </c>
@@ -4314,7 +4337,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>423</v>
       </c>
@@ -4322,7 +4345,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>424</v>
       </c>
@@ -4330,7 +4353,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>425</v>
       </c>
@@ -4338,7 +4361,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>426</v>
       </c>
@@ -4346,7 +4369,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>427</v>
       </c>
@@ -4354,7 +4377,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>428</v>
       </c>
@@ -4362,7 +4385,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>429</v>
       </c>
@@ -4370,7 +4393,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>430</v>
       </c>
@@ -4378,7 +4401,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>431</v>
       </c>
@@ -4386,7 +4409,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>432</v>
       </c>
@@ -4394,7 +4417,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>433</v>
       </c>
@@ -4402,7 +4425,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>434</v>
       </c>
@@ -4410,7 +4433,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>435</v>
       </c>
@@ -4418,7 +4441,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>436</v>
       </c>
@@ -4426,7 +4449,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>437</v>
       </c>
@@ -4434,7 +4457,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>438</v>
       </c>
@@ -4442,7 +4465,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>439</v>
       </c>
@@ -4450,7 +4473,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>440</v>
       </c>
@@ -4458,7 +4481,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>441</v>
       </c>
@@ -4466,7 +4489,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>442</v>
       </c>
@@ -4474,7 +4497,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>443</v>
       </c>
@@ -4482,7 +4505,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>444</v>
       </c>
@@ -4490,7 +4513,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>445</v>
       </c>
@@ -4498,7 +4521,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>446</v>
       </c>
@@ -4506,7 +4529,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>448</v>
       </c>
@@ -4514,7 +4537,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>449</v>
       </c>
@@ -4522,7 +4545,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>450</v>
       </c>
@@ -4530,7 +4553,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>451</v>
       </c>
@@ -4538,7 +4561,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>453</v>
       </c>
@@ -4546,7 +4569,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>455</v>
       </c>
@@ -4554,7 +4577,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>457</v>
       </c>
@@ -4562,7 +4585,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>458</v>
       </c>
@@ -4570,7 +4593,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>459</v>
       </c>
@@ -4578,7 +4601,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>460</v>
       </c>
@@ -4586,7 +4609,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>461</v>
       </c>
@@ -4594,7 +4617,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>462</v>
       </c>
@@ -4602,7 +4625,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>463</v>
       </c>
@@ -4611,17 +4634,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/data/Map118.xlsx
+++ b/data/Map118.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BD268-952D-463E-9269-FF502B19B2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33532A32-2683-4FE1-980A-F3834C3F1D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="855" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="561">
   <si>
     <t>自動実行</t>
   </si>
@@ -802,17 +802,9 @@
 でも・・・しょうがないのかなぁ・・・）</t>
   </si>
   <si>
-    <t>\n&lt;Ako&gt;（どっちが勝ってもやだなぁ・・・
-・・・でも・・・しょうがないのかなぁ・・・）</t>
-  </si>
-  <si>
     <t>\n&lt;アーコ&gt;あたしは中立。
 だからお金くれる方の味方。というかお金の味方。
 うん。</t>
-  </si>
-  <si>
-    <t>\n&lt;Ako&gt;あたしは中立。
-だからお金くれる方の味方。というかお金の味方。うん。</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;分かった。売ってあげる。
@@ -943,82 +935,46 @@
 私の部屋があるもの。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;ちょっと待ちなさい。
-2階はダメよ。私の部屋があるもの。</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;そうねぇ。
 どうしても通りたいって言うなら・・・
 ちょっとしたゲームをしましょ。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;そうねぇ。
-どうしても通りたいって言うなら・・・ちょっとしたゲームをしましょ。</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あんたが後ろから私を突いて、射精を我慢するの♥
 ゆっくり奥まで入れて抜くだけ♥
 そうね、3回でいいわ。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あんたが後ろから私を突いて、射精を我慢するの♥
-ゆっくり奥まで入れて抜くだけ♥そうね、3回でいいわ。</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;3回入れて射精しなかったらあんたの勝ち。
 我慢できずにイっちゃったらあんたの負け。
 どう？これぐらいなら余裕でしょ？</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;3回入れて射精しなかったらあんたの勝ち。
-我慢できずにイっちゃったらあんたの負け。どう？これぐらいなら余裕でしょ？</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;たったの3回、おちんちんをオマンコに入れるだけよ。
 私からは手を出さない。
 超簡単なゲーム♥大サービスよ。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;たったの3回、おちんちんをオマンコに入れるだけよ。
-私からは手を出さない。超簡単なゲーム♥大サービスよ。</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;ほらおいで♥
 大丈夫。たったの3回よ♥
 まさか、怖気づいちゃった訳じゃないわよねぇ？くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;ほらおいで♥
-大丈夫。たったの3回よ♥まさか、怖気づいちゃった訳じゃないわよねぇ？くすくす♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あはっ♥どうしたの驚いた顔しちゃって♥
 そんなに気持ちよかった？
 ほら、あと2回♥がんばれ♥がんばれ♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あはっ♥どうしたの驚いた顔しちゃって♥
-そんなに気持ちよかった？ほら、あと2回♥がんばれ♥がんばれ♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;息が荒いわよ？必死に耐えてるの？
 イキそうならやめてもいいのよ♥
 それとも、私に中出しする？くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;息が荒いわよ？必死に耐えてるの？
-イキそうならやめてもいいのよ♥それとも、私に中出しする？くすくす♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あははは！その必死な顔♥超ウケる♥
 でもまぁ、あんたの勝ちよ♥
 ぷ・・・くくく♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あははは！その必死な顔♥超ウケる♥
-でもまぁ、あんたの勝ちよ♥ぷ・・・くくく♥</t>
-  </si>
-  <si>
     <t>挿入</t>
   </si>
   <si>
@@ -1030,19 +986,11 @@
 お尻に熱いのがかかってるわ♥くすくす♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あはっ。
-抜いたのに限界が来ちゃってたみたい♥お尻に熱いのがかかってるわ♥くすくす♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;やめるの？
 イキそうになっちゃった？
 じゃあゲームはここまでね。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;やめるの？
-イキそうになっちゃった？じゃあゲームはここまでね。</t>
-  </si>
-  <si>
     <t>\n&lt;\n[1]&gt;あぁ！！ダメ！！
 あぁぁぁぁぁぁぁ！！！</t>
   </si>
@@ -1056,19 +1004,11 @@
 私が何もしないのはゲームの時だけよ？</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;ん？なーに？
-ゲームは終わりって言ったじゃない。私が何もしないのはゲームの時だけよ？</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;あはっ♥お尻にもたれかかって。
 くすくす♥
 そんなに気持ちよかったの？</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;あはっ♥お尻にもたれかかって。
-くすくす♥そんなに気持ちよかったの？</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;じゃ、通っていいわよ。
 約束だものね。</t>
   </si>
@@ -1078,19 +1018,11 @@
 ま、精々楽しませてね♥</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;たったの3回入れただけでイキそうになってるあんたが
-この先無事に脱出できるとは思えないけど♥ま、精々楽しませてね♥</t>
-  </si>
-  <si>
     <t>\n&lt;\n[3]&gt;雑魚♥
 3回すら我慢できないの？くすくす♥
 じゃ、また挑戦したくなったら来なさい。</t>
   </si>
   <si>
-    <t>\n&lt;\n[3]&gt;雑魚♥
-3回すら我慢できないの？くすくす♥じゃ、また挑戦したくなったら来なさい。</t>
-  </si>
-  <si>
     <t>ツタが入口を塞いでいる・・・
 武器があればなんとか出来るかもしれない。</t>
   </si>
@@ -1837,12 +1769,456 @@
     <t>Ivy is blocking the entrance… You might be able to do something if you had a weapon.</t>
   </si>
   <si>
-    <t>It won't open, but there's no visible keyhole. The door looks poorly constructed and fragile…</t>
-  </si>
-  <si>
     <t>Looks like the pantry.
-Looks like the pantry. It's locked...
-鍵がかかっている・・・</t>
+It's locked…</t>
+  </si>
+  <si>
+    <t>Unlocked the pantry!</t>
+  </si>
+  <si>
+    <t>Pantry door</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder if brother would like me to bring him
+some of this... No, now's not the time to be drinking.
+I'd better not.)</t>
+  </si>
+  <si>
+    <t>You could pass by if you could break this rubble…</t>
+  </si>
+  <si>
+    <t>The parlor door.
+It's locked…</t>
+  </si>
+  <si>
+    <t>Unlocked the parlor!</t>
+  </si>
+  <si>
+    <t>An angel statue…</t>
+  </si>
+  <si>
+    <t>The clock ticks away…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder how long I'll be trapped here...)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I'm losing my sense of time...
+I need to get out of here soon...)</t>
+  </si>
+  <si>
+    <t>A translucent barrier blocks the stairway…</t>
+  </si>
+  <si>
+    <t>Barrier</t>
+  </si>
+  <si>
+    <t>Today's menu:
+・Green onion vinaigrette
+・Duck confit</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Vinaigrette?
+Confit?
+...???)</t>
+  </si>
+  <si>
+    <t>Shina was sharpening her claws with a book,
+and it looked like it was my diary!
+The pages were scattering everywhere!</t>
+  </si>
+  <si>
+    <t>I mustn't get angry though! She can't read, so she
+didn't know how important the book was! I just need
+to collect the pages again.</t>
+  </si>
+  <si>
+    <t>Someone tell that idiot Shina that the chandelier is not
+for jumping on. She kicks up a ton of dust every time she jumps on it.
+Seriously, she's insane.</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Ahhh! C-can't!!
+Aaaaaaaaahhhh!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;Uwaah!! S-stop!!!
+Aaaaaaaaahhh!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Well then, you may pass.
+A promise is a promise.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;(I don't really care who wins…
+...
+But... Is this the only way…)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hold it right there.
+There's nothing on the second floor.
+Just my room.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;OK.
+If you really want to get by...
+Let's play a little game.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you don't ejaculate after 3 thrusts, then you win.
+If you can't hold it back, then you lose.
+Hm? Is that fair?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Just put your dick in my pussy 3 times.
+Don't take your hands off of me.
+Super simple game♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Come here♥ It's all right. Just 3 times♥
+What, you're not scared, are you?
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ What's wrong? You look so surprised♥
+Didn't it feel good? Hora, just two more times♥
+Give it your best♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Are you out of breath? Can you barely stand it?
+You can stop if you're about to cum♥ Or will you 
+cum inside me? Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahahaha! That desperate look on your face♥ So good♥
+But hey, you won♥
+Fu... Hee hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaaa.
+It seems you reached you limit even after
+pulling out♥ My ass feels all hot now♥ Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm? What's this? 
+Sounds like the game is over.
+I didn't move a muscle, and it's still all over?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa♥ You're leaning against my butt.
+Hee hee♥
+Did it really feel so good?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Weakling♥
+Can't even endure 3 pumps? Hee hee♥
+Well, come back if you want to try again.</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+Opening a restaurant</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+The usual</t>
+  </si>
+  <si>
+    <t>Ako's Ledger
+Reunion</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I'm a neutral party.
+I side with whoever's got money.\nI'm a buddy for hire.
+That's right.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;All right then. I've got the goods.
+Battle equipment, that is…</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;What would you like?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I see.</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Come again-.</t>
+  </si>
+  <si>
+    <t>Unlocked the bathroom!</t>
+  </si>
+  <si>
+    <t>Looks like the bathroom.
+It's locked…</t>
+  </si>
+  <si>
+    <t>Unlocked the warehouse!</t>
+  </si>
+  <si>
+    <t>The warehouse.
+It's locked…</t>
+  </si>
+  <si>
+    <t>It won't open, but there's no visible keyhole.
+The door looks poorly constructed and fragile…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Are you gonna stop?
+Are you about to cum?
+So the game's about to end.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Found my semen slave, nya!
+What are you doing here, nya?</t>
+  </si>
+  <si>
+    <t>Might find something useful here…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Struggling pathetically, nya?
+Kusukusu♥ But, should you really be doing that, nyan?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you escape, you can never have sex with us again, nya.
+You'll regret that for the rest of your life. Look here, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Stroke♥ Stroke, nya♥
+Don't your pants get tight when you look at this, nyaa?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you come here, I'll tease your dick just like this
+and make it cry a whole bunch♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Stroke♥ Stroke♥
+Lick♥ Lick♥ Nyahaa♥ Your dick's taking damage just looking at me♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Horaa♥ Can you resist, nyaa?
+You're going insane just from watching, nyan♥ Lick lick♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Sniff sniff...
+Nyaaah...♥ The harder you resist, the better it smells, nyaa.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll let you flounder a little longer.
+I'll kill you if you cum outside of me. Do your best to endure, ok, nyaa?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Are you gonna think about me while you're
+fucking yourself-? Nyahahaha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're starting to drip pre-cum already.
+Such an impossibly fragile dick, nya. It's almost snack time, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're not getting away now.
+Good.First things first, show me how you masturbate, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Are you really still trying to escape, nyaa?
+Reeeally-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you escape, you can never have sex with us again, nya.
+Are you really ok with that, nyaa? Look over here, nyan♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're starting to drip pre-cum already.
+Such an impossibly weak dick, nya. Give it up and pew-pew, dummy♥</t>
+  </si>
+  <si>
+    <t>There's nothing else here…</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Caught you♥
+Look over here now♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Smooch♥
+Ahaa♥ I stole a kiss♥ Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I guess for a masochist like yourself,
+just a kiss like this is enough to turn you on. Smooch♥ Kiss♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your dick's already hard. Aaaah.
+If I pin you right here, you won't be able to get away.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ara, are you trying to shake loose? You're barely
+even trying♥ Your dick doesn't really want to get away, does it?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You couldn't hold back.
+You lose this one. Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Look at you. You're really trying your best.
+Alright then, I'll let you go for now.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Oh, my, my.
+You're oozing pre-cum. The floor is filthy now.</t>
+  </si>
+  <si>
+    <t>Sheet music lines the shelf…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Ooh… I'm curious, but now's not the time.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I'm not into music, but I admire people who can read this stuff…)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What are you looking for, nyan?
+There's nothing in there, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Time for cheek rubs, nya.
+Humans go bonkers for my cheek rubs.
+There's no resisting me, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyaaahnn...♥
+It smells delicious, nyaa♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Don't you wanna plaster my face with semen, nyaa?
+Nyaa- nyaa?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;There's no use trying to fight it♥
+Go ahead and cum on my cheek, nya♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Loooser♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Nyahahaha!
+Are you still putting up a fight, nyaan?
+You're an odd one!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your cock looks like it's aching, nyan.
+Your cheeks are red, and you're panting like a horse.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Come to my room later, nya.
+I'll squeeze you dry, nya♥</t>
+  </si>
+  <si>
+    <t>Report: Monsters (Orcs)</t>
+  </si>
+  <si>
+    <t>A low ranking monster resembling a two-legged pig. Some can
+use tools, but most have comparable intelligence to pigs.
+Similar to pigs, their sense of smell is excellent.</t>
+  </si>
+  <si>
+    <t>Owing to their high fertility rate, and low intelligence, other races
+such as succubi will often use them as grunts.
+(If trained, perhaps they can even learn a special skill?)</t>
+  </si>
+  <si>
+    <t>If you draw too close, they will lash out at you. Since they are so
+weak, this is not much of a threat. If you feel your body growing
+dull, they may be trained upon for experience.</t>
+  </si>
+  <si>
+    <t>Small tools such as glue are strewn about.
+You could craft something here.</t>
+  </si>
+  <si>
+    <t>Nothing else useful.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Maybe just a swig...
+No, no I can't.
+Now's not the time to be drinking...)</t>
+  </si>
+  <si>
+    <t>Nothing else…</t>
+  </si>
+  <si>
+    <t>The clock is broken…</t>
+  </si>
+  <si>
+    <t>The clock is adorned with a gorgeous ornament…
+You take it.</t>
+  </si>
+  <si>
+    <t>There's a mouse loose in the kitchen!
+The little theif nabbed a key!
+What in the world would it need that for?</t>
+  </si>
+  <si>
+    <t>I've asked that moron Shina to catch it.
+If we could block its hole, it wouldn't be able to escape…</t>
+  </si>
+  <si>
+    <t>Materials for crafting weapons…</t>
+  </si>
+  <si>
+    <t>How to craft the Mace</t>
+  </si>
+  <si>
+    <t>How to craft the Hookshot</t>
+  </si>
+  <si>
+    <t>Find a stick in the bathroom.
+Find a hard, heavy object in the Butler's (Shina's) room.</t>
+  </si>
+  <si>
+    <t>Find some rope in the warehouse.
+Find a pointed object in the Master's room (2nd floor, right side).</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Are you really gonna fight…?
+Lily is really strong. \nI'd hate for \n[1] to be defeated, and devoured.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're going to poke me from behind, and try to hold
+back your cum♥ Slowly put it in all the way,
+then back out♥ 3 times should be good.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;You're about to come just from 3 pumps. I don't
+think you're gonna make it much further than here♥
+Keep me entertained here, why don't you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Stroke♥ Stroke♥ Lick♥ Lick♥
+Nyahaa♥ Your dick's taking damage just looking at me♥</t>
+  </si>
+  <si>
+    <t>Found a fire tome…
+With this, you could burn any number of things.</t>
+  </si>
+  <si>
+    <t>Then she says 'You can't do this, nya～', to provoke me,
+as if that's the reason I'm angry.
+I'm telling you, it drives me crazy.</t>
+  </si>
+  <si>
+    <t>It may not be possible for me to fly off of the
+balcony. It would be nice to have some privacy.</t>
   </si>
 </sst>
 </file>
@@ -2185,15 +2561,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B308"/>
+  <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A299" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,43 +2622,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2308,11 +2686,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2380,11 +2758,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2401,43 +2779,43 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2449,75 +2827,75 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>61</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2569,11 +2947,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2841,115 +3219,115 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>151</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>153</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>155</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>157</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>159</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>161</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>163</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>165</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>167</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>169</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>171</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>173</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>175</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>177</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2961,7 +3339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>181</v>
       </c>
@@ -2969,7 +3347,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>183</v>
       </c>
@@ -2977,7 +3355,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>185</v>
       </c>
@@ -2985,7 +3363,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>187</v>
       </c>
@@ -2993,7 +3371,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>189</v>
       </c>
@@ -3001,1636 +3379,1984 @@
         <v>190</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>191</v>
       </c>
       <c r="B102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>193</v>
       </c>
       <c r="B103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B105" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>197</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="C106" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>199</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="C107" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>201</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C108" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>203</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="C109" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>205</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>207</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="B112" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C113" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>210</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>211</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>213</v>
+      </c>
+      <c r="B116" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>215</v>
+      </c>
+      <c r="B118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>216</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>217</v>
+      </c>
+      <c r="B120" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" t="s">
+        <v>219</v>
+      </c>
+      <c r="C122" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>235</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>237</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>212</v>
-      </c>
-      <c r="B114" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>213</v>
-      </c>
-      <c r="B115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>215</v>
-      </c>
-      <c r="B116" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>216</v>
-      </c>
-      <c r="B117" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>217</v>
-      </c>
-      <c r="B118" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>218</v>
-      </c>
-      <c r="B119" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>219</v>
-      </c>
-      <c r="B120" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>220</v>
-      </c>
-      <c r="B121" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>221</v>
-      </c>
-      <c r="B122" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>222</v>
-      </c>
-      <c r="B123" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>223</v>
-      </c>
-      <c r="B124" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>224</v>
-      </c>
-      <c r="B125" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>225</v>
-      </c>
-      <c r="B126" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>227</v>
-      </c>
-      <c r="B127" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>228</v>
-      </c>
-      <c r="B128" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>229</v>
-      </c>
-      <c r="B129" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>232</v>
-      </c>
-      <c r="B131" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>235</v>
-      </c>
-      <c r="B134" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>237</v>
-      </c>
-      <c r="B135" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>239</v>
-      </c>
-      <c r="B136" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>241</v>
-      </c>
-      <c r="B137" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>243</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B144" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B145" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B146" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="B147" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>247</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B148" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B149" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>249</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B150" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="B151" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B152" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B153" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>253</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B154" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="C154" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>254</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B155" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="C155" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>255</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B156" t="s">
+        <v>255</v>
+      </c>
+      <c r="C156" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="B157" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>257</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B158" t="s">
+        <v>257</v>
+      </c>
+      <c r="C158" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="B159" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>259</v>
       </c>
-      <c r="B147" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="B160" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B148" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="C160" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>261</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B161" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C161" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>263</v>
       </c>
-      <c r="B150" t="s">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>265</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B164" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="C164" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>266</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B165" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="C165" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>268</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B166" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="C166" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>270</v>
       </c>
-      <c r="B154" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B167" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B155" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="C167" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>272</v>
       </c>
-      <c r="B156" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    </row>
+    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>273</v>
       </c>
-      <c r="B157" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B169" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B158" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="C169" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>275</v>
       </c>
-      <c r="B159" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B170" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C170" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>278</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B172" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="C172" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B173" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C173" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>282</v>
       </c>
-      <c r="B164" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B174" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C174" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B175" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>285</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B176" s="1" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="C176" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>287</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B177" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B178" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C178" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>290</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B179" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="C179" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>292</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B180" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C180" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B181" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>295</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B182" t="s">
+        <v>295</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="B183" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>297</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B184" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="B185" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C185" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="B186" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B175" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+      <c r="C186" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>302</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B187" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C187" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>304</v>
       </c>
-      <c r="B177" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="B188" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>305</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B189" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C189" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>307</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B190" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="C190" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>309</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B191" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C191" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>311</v>
       </c>
-      <c r="B181" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="B192" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B182" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>313</v>
-      </c>
-      <c r="B183" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>314</v>
-      </c>
-      <c r="B184" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>315</v>
-      </c>
-      <c r="B185" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>317</v>
-      </c>
-      <c r="B186" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>319</v>
-      </c>
-      <c r="B187" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>321</v>
-      </c>
-      <c r="B188" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>322</v>
-      </c>
-      <c r="B189" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>324</v>
-      </c>
-      <c r="B190" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>326</v>
-      </c>
-      <c r="B191" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>328</v>
-      </c>
-      <c r="B192" t="s">
-        <v>329</v>
+      <c r="C192" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B193" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B194" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B195" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B196" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B198" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B199" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B200" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B201" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B202" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B203" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B205" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B206" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B207" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>329</v>
+      </c>
+      <c r="B208" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>330</v>
+      </c>
+      <c r="B209" t="s">
+        <v>330</v>
+      </c>
+      <c r="C209" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>331</v>
+      </c>
+      <c r="B210" t="s">
+        <v>331</v>
+      </c>
+      <c r="C210" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>332</v>
+      </c>
+      <c r="B211" t="s">
+        <v>332</v>
+      </c>
+      <c r="C211" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>333</v>
+      </c>
+      <c r="B212" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>334</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>335</v>
+      </c>
+      <c r="B214" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>336</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>337</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>339</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>340</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>341</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>343</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>345</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>346</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B223" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="224" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>347</v>
       </c>
-      <c r="B209" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="B224" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B210" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    </row>
+    <row r="225" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>349</v>
       </c>
-      <c r="B211" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="B225" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B212" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    </row>
+    <row r="226" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>351</v>
       </c>
-      <c r="B213" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="B226" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B214" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>353</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B227" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>354</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B228" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="229" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="B229" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>356</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B230" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="C230" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>357</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B231" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="C231" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>358</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B232" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="B233" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>360</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B234" t="s">
+        <v>360</v>
+      </c>
+      <c r="C234" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="B235" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>362</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B236" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="C236" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>363</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B237" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="C237" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>364</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B238" t="s">
+        <v>364</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B239" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>366</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B240" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B241" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>368</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B242" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="B243" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>370</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B244" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="C244" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>371</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B245" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="C245" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>372</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B246" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="C246" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B247" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+      <c r="C247" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>374</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B248" s="1" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="C248" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>375</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B249" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="250" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B250" s="1" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="C250" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>377</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B251" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="C251" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>378</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B252" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="C252" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>379</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B253" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="C253" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>380</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B254" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="C254" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>381</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B255" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="C255" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>382</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B256" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="C256" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>383</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B257" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="C257" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>384</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B258" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>385</v>
       </c>
-      <c r="B242" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="B259" t="s">
         <v>386</v>
       </c>
-      <c r="B243" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    </row>
+    <row r="260" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>387</v>
       </c>
-      <c r="B244" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="B260" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B245" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>389</v>
       </c>
-      <c r="B246" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B261" t="s">
         <v>390</v>
       </c>
-      <c r="B247" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>391</v>
       </c>
-      <c r="B248" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B262" t="s">
         <v>392</v>
       </c>
-      <c r="B249" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>393</v>
       </c>
-      <c r="B250" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B263" t="s">
         <v>394</v>
       </c>
-      <c r="B251" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>395</v>
       </c>
-      <c r="B252" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="B264" t="s">
         <v>396</v>
       </c>
-      <c r="B253" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>397</v>
       </c>
-      <c r="B254" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="B265" t="s">
         <v>398</v>
       </c>
-      <c r="B255" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>399</v>
       </c>
-      <c r="B256" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="B266" t="s">
         <v>400</v>
       </c>
-      <c r="B257" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>401</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B267" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>402</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B268" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="B269" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>404</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B270" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B271" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>406</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B272" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="B273" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>408</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B274" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="B275" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>410</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B276" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+      <c r="B277" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>412</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B278" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+      <c r="B279" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>414</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B280" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+      <c r="B281" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B282" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="B283" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>418</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B284" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="C284" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>419</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B285" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>420</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B286" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>421</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B287" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>422</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B288" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="289" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>423</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B289" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+      <c r="C289" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>424</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B290" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="C290" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>425</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B291" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>426</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B292" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="C292" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>427</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B293" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+      <c r="C293" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>428</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B294" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="C294" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>429</v>
       </c>
-      <c r="B278" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+      <c r="B295" t="s">
         <v>430</v>
       </c>
-      <c r="B279" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    </row>
+    <row r="296" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>431</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B296" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="C296" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>432</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B297" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="C297" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>433</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B298" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>434</v>
       </c>
-      <c r="B283" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B299" t="s">
         <v>435</v>
       </c>
-      <c r="B284" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>436</v>
       </c>
-      <c r="B285" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B300" t="s">
         <v>437</v>
       </c>
-      <c r="B286" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    </row>
+    <row r="301" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B287" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+      <c r="B301" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B288" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>440</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B302" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="303" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B303" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="C303" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>442</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B304" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="C304" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>443</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B305" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="C305" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>444</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B306" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>445</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B307" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="C307" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>446</v>
       </c>
-      <c r="B295" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>448</v>
-      </c>
-      <c r="B296" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>449</v>
-      </c>
-      <c r="B297" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>450</v>
-      </c>
-      <c r="B298" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>451</v>
-      </c>
-      <c r="B299" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>453</v>
-      </c>
-      <c r="B300" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>455</v>
-      </c>
-      <c r="B301" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>457</v>
-      </c>
-      <c r="B302" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>458</v>
-      </c>
-      <c r="B303" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>459</v>
-      </c>
-      <c r="B304" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>460</v>
-      </c>
-      <c r="B305" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>461</v>
-      </c>
-      <c r="B306" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>462</v>
-      </c>
-      <c r="B307" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>463</v>
-      </c>
-      <c r="B308" t="s">
-        <v>463</v>
+      <c r="B308" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
